--- a/HPReserger/Resources/LISTADO DE COMPRAS.xlsx
+++ b/HPReserger/Resources/LISTADO DE COMPRAS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HPReserger\HpReserger\HPReserger\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6627428-3F03-426E-A35C-4A5722AE2FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="4" r:id="rId1"/>
@@ -21,17 +22,235 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja2!$A$1:$A$91</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'PRIMER REGISTRO'!$A$1:$BL$402</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={C03F83F9-496B-4DB8-8B0E-DA02DE405C08}</author>
+    <author>Usuario de Windows</author>
+    <author>tc={296FE339-3EE9-4DBB-AAE9-4CB0228C2D5E}</author>
+    <author>tc={2CFC5972-3D4B-4EB2-9520-BB3A62DA113B}</author>
+    <author>tc={C96A7A3A-561A-4DE9-832F-74DB5E049925}</author>
+    <author>JeffOre</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{C241CC66-88E3-4AC0-A8F5-B74989742CFA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    -Ninguno (para cualquier comprobante)
+-Fondo Fijo
+-Reembolso de Gasto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{82E37D07-4EB1-4F2E-8769-498FB0FA29CD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario de Windows:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1 Factura
+2 Recibo Honorarios
+3 Boleta de Venta
+7 Nota de crédito
+8 Nota de debito
+10 Recibo de Arrendamiento
+14 Recibo de suministros
+91 Comprobante de no domiciliado
+97 Nota de crédito Comprobante no domiciliado
+0 Otros
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="2" shapeId="0" xr:uid="{7A400CF7-40B3-41F1-A0CA-0960EA8E90DB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    IGV
+GNG
+ONG</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="3" shapeId="0" xr:uid="{3C852212-C2F7-429B-8069-029A26C5946C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    MN
+ME</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y1" authorId="1" shapeId="0" xr:uid="{F0998C43-83D6-4442-85EA-296FFDC53ADE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario de Windows:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>4212101 - FACTURAS POR PAGAR A TERCEROS - MN
+4212201 - FACTURAS POR PAGAR A TERCEROS - ME
+4241101 - HONORARIOS POR PAGAR - MN
+4241201 - HONORARIOS POR PAGAR - ME</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG1" authorId="4" shapeId="0" xr:uid="{8E76326E-9FF4-4EC3-BE77-EC51348CB67B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    - DNI
+-PASAPORTE
+Solo Usar en caso de Reembolso Gasto, Fondo Fijo o Entrega a rendir</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH1" authorId="1" shapeId="0" xr:uid="{66F789AE-901D-4D91-8787-D79F8FE7B329}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Usuario de Windows:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Documento del empleado a quien se va a 
+reintegrar el Reembolso Gasto, Fondo Fijo o Entrega a rendir</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BD1" authorId="5" shapeId="0" xr:uid="{857C76AC-3752-45D3-88A6-D32B9E166580}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>JeffOre:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Id: Tabla Detracciones</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3208" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3273" uniqueCount="1160">
   <si>
     <t xml:space="preserve">Vou.Origen </t>
   </si>
@@ -2598,9 +2817,6 @@
     <t>MN</t>
   </si>
   <si>
-    <t>14/01/2021</t>
-  </si>
-  <si>
     <t>07</t>
   </si>
   <si>
@@ -2610,9 +2826,6 @@
     <t>E001-914</t>
   </si>
   <si>
-    <t>AMAT BERNAL RUBEN</t>
-  </si>
-  <si>
     <t>AMAT</t>
   </si>
   <si>
@@ -2625,21 +2838,12 @@
     <t>NOTA DE CREDITO</t>
   </si>
   <si>
-    <t>07/06/2021</t>
-  </si>
-  <si>
     <t>F001-1636</t>
   </si>
   <si>
     <t>20498918817</t>
   </si>
   <si>
-    <t>63414</t>
-  </si>
-  <si>
-    <t>CASTOR OIL SAC</t>
-  </si>
-  <si>
     <t>FACTURA GRAVADA</t>
   </si>
   <si>
@@ -3261,38 +3465,299 @@
     <t>2940</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Red42</t>
-  </si>
-  <si>
-    <t>31/05/2021</t>
-  </si>
-  <si>
     <t>F001-1614</t>
   </si>
   <si>
-    <t>6311</t>
-  </si>
-  <si>
     <t>FACTURAS GRAVA E INAFECTAS</t>
+  </si>
+  <si>
+    <t>Detraccion</t>
+  </si>
+  <si>
+    <t>Reducir cta 42</t>
+  </si>
+  <si>
+    <t>Tabla Detracciones</t>
+  </si>
+  <si>
+    <t>ARENA Y PIEDRA</t>
+  </si>
+  <si>
+    <t>RESIDUOS, SUBPRODUCTOS, DESECHOS, RECORTES, DESPERDICIOS Y FORMAS PRIMARIAS DERIVADAS DE LOS MISMOS</t>
+  </si>
+  <si>
+    <t>MADERA (3)</t>
+  </si>
+  <si>
+    <t>INTERMEDIACIÓN LABORAL Y TERCERIZACIÓN [1] [3]</t>
+  </si>
+  <si>
+    <t>ARRENDAMIENTO DE BIENES [1]</t>
+  </si>
+  <si>
+    <t>MANTENIMIENTO Y REPARACIÓN DE BIENES MUEBLES [5]</t>
+  </si>
+  <si>
+    <t>MOVIMIENTO DE CARGA [3]</t>
+  </si>
+  <si>
+    <t>OTROS SERVICIOS EMPRESARIALES [3]</t>
+  </si>
+  <si>
+    <t>COMISIÓN MERCANTIL [2]</t>
+  </si>
+  <si>
+    <t>FABRICACIÓN DE BIENES POR ENCARGO [2] [3]</t>
+  </si>
+  <si>
+    <t>SERVICIO DE TRANSPORTE DE PERSONAS [2]</t>
+  </si>
+  <si>
+    <t>CONTRATOS DE CONSTRUCCIÓN [4]</t>
+  </si>
+  <si>
+    <t>DEMÁS SERVICIOS GRAVADOS CON EL IGV [6]</t>
+  </si>
+  <si>
+    <t>SERVICIO DE TRANSPORTE DE BIENES POR VÍA TERRESTRE</t>
+  </si>
+  <si>
+    <t>PRIMERA VENTA DE INMUEBLES GRAVADA CON EL IGV</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Empresa</t>
+  </si>
+  <si>
+    <t>Compensación</t>
+  </si>
+  <si>
+    <t>Fecha Conta.</t>
+  </si>
+  <si>
+    <t>Serie Nro Factura</t>
+  </si>
+  <si>
+    <t>Ruc</t>
+  </si>
+  <si>
+    <t>Base Gravada(IGV)</t>
+  </si>
+  <si>
+    <t>Tipo Impuesto</t>
+  </si>
+  <si>
+    <t>Base Gravada(ONG)</t>
+  </si>
+  <si>
+    <t>Base No Grav.</t>
+  </si>
+  <si>
+    <t>Monto IGV</t>
+  </si>
+  <si>
+    <t>Doc Ref</t>
+  </si>
+  <si>
+    <t>Numero Ref.</t>
+  </si>
+  <si>
+    <t>Fecha Doc Ref.</t>
+  </si>
+  <si>
+    <t>Const.Detracción</t>
+  </si>
+  <si>
+    <t>F.Pago Det.</t>
+  </si>
+  <si>
+    <t>TD Solictante</t>
+  </si>
+  <si>
+    <t>Nro Doc. Solicitante</t>
+  </si>
+  <si>
+    <t>Concepto -Glosa</t>
+  </si>
+  <si>
+    <t>4212101 - FACTURAS POR PAGAR A TERCEROS - MN</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>4212201 - FACTURAS POR PAGAR A TERCEROS - ME</t>
+  </si>
+  <si>
+    <t>4241101 - HONORARIOS POR PAGAR - MN</t>
+  </si>
+  <si>
+    <t>4241201 - HONORARIOS POR PAGAR - ME</t>
+  </si>
+  <si>
+    <t>Lista de compensación</t>
+  </si>
+  <si>
+    <t>Ninguno</t>
+  </si>
+  <si>
+    <t>Fondo Fijo</t>
+  </si>
+  <si>
+    <t>Reembolso Gasto</t>
+  </si>
+  <si>
+    <t>Entrega a Rendir</t>
+  </si>
+  <si>
+    <t>Comprobantes</t>
+  </si>
+  <si>
+    <t>Factura</t>
+  </si>
+  <si>
+    <t>Recibo Honorarios</t>
+  </si>
+  <si>
+    <t>Boleta de Venta</t>
+  </si>
+  <si>
+    <t>Nota de Credito</t>
+  </si>
+  <si>
+    <t>Nota de Debito</t>
+  </si>
+  <si>
+    <t>Recibo de Arrendamiento</t>
+  </si>
+  <si>
+    <t>Recibo de suministros</t>
+  </si>
+  <si>
+    <t>Comprobante de no dominiciliado</t>
+  </si>
+  <si>
+    <t>Nota de Credito de Comprobante de no dominiciliado</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>Id_Empresa</t>
+  </si>
+  <si>
+    <t>RUC</t>
+  </si>
+  <si>
+    <t>II CAPITAL S.A.C</t>
+  </si>
+  <si>
+    <t>INVERSIONES ACTUAL PERU S.A.C</t>
+  </si>
+  <si>
+    <t>ACTUAL FONDO PERU S.A.C</t>
+  </si>
+  <si>
+    <t>ACTUAL ASESORIAS PERU S.A.C</t>
+  </si>
+  <si>
+    <t>ACTUAL PERU S.A.C</t>
+  </si>
+  <si>
+    <t>CASA PROPIA GRUPO CONST. INMOB. S.A.C</t>
+  </si>
+  <si>
+    <t>INMOBILIARIA ACTUAL COSTANERA S.A.C</t>
+  </si>
+  <si>
+    <t>INMOBILIARIA ACTUAL ROMA S.A.C</t>
+  </si>
+  <si>
+    <t>INMOBILIARIA ACTUAL REPUBLICA S.A.C</t>
+  </si>
+  <si>
+    <t>INMOBILIARIA ACTUAL MENDIBURU 642 S.A.C</t>
+  </si>
+  <si>
+    <t>INMOBILIARIA ACTUAL BRASIL S.A.C</t>
+  </si>
+  <si>
+    <t>INMOBILIARIA ACTUAL BERLIN S.A.C</t>
+  </si>
+  <si>
+    <t>INMOBILIARIA ACTUAL COCHRANE S.A.C</t>
+  </si>
+  <si>
+    <t>INMOBILIARIA ACTUAL LOS PINOS S.A.C</t>
+  </si>
+  <si>
+    <t>INMOBILIARIA ACTUAL PIURA S.A.C</t>
+  </si>
+  <si>
+    <t>INMOBILIARIA ACTUAL FAISANES S.A.C</t>
+  </si>
+  <si>
+    <t>INMOBILIARIA ACTUAL AREQUIPA 44 S.A.C</t>
+  </si>
+  <si>
+    <t>INMOBILIARIA ACTUAL BENAVIDES S.A.C</t>
+  </si>
+  <si>
+    <t>INMOBILIARIA ACTUAL FAISANES 343 S.A.C.</t>
+  </si>
+  <si>
+    <t>INMOBILIARIA ACTUAL MENDIBURU S.A.C</t>
+  </si>
+  <si>
+    <t>INMOBILIARIA ACTUAL AREQUIPA S.A.C</t>
+  </si>
+  <si>
+    <t>ACTUAL CORP PERU SAC</t>
+  </si>
+  <si>
+    <t>ESTRUCTURA CAPITAL S.A.C</t>
+  </si>
+  <si>
+    <t>DNI</t>
+  </si>
+  <si>
+    <t>PASAPORTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -3337,13 +3802,101 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -3372,73 +3925,145 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3808,807 +4433,1438 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BM65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="10" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="10" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23" style="10" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" style="10" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" style="10" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="10" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" style="10" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="7.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.85546875" style="10" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="24.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11" style="19" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.85546875" style="10" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="11.28515625" style="10" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="6.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12" style="10" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10" style="10" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="8" style="10" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="5.42578125" style="10" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="6.85546875" style="10" hidden="1" customWidth="1"/>
-    <col min="45" max="46" width="9.140625" style="10" hidden="1" customWidth="1"/>
-    <col min="47" max="48" width="8.42578125" style="10" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="5.42578125" style="10" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="9.42578125" style="10" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="8.85546875" style="10" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="4.140625" style="10" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="7.7109375" style="10" hidden="1" customWidth="1"/>
-    <col min="54" max="54" width="6.42578125" style="10" hidden="1" customWidth="1"/>
-    <col min="55" max="55" width="4.140625" style="10" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="12.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="8.42578125" style="10" hidden="1" customWidth="1"/>
-    <col min="58" max="58" width="7.5703125" style="10" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="6" style="23" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8" style="10" hidden="1" customWidth="1"/>
-    <col min="61" max="61" width="8.28515625" style="10" hidden="1" customWidth="1"/>
-    <col min="62" max="16384" width="11.42578125" style="17"/>
+    <col min="1" max="1" width="13" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="23.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12" style="15" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="12.85546875" style="49" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="12" style="3" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="14" style="3" hidden="1" customWidth="1"/>
+    <col min="38" max="39" width="11.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="11.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="10.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="8.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="6" style="3" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="7.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="9.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="9.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="9.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="9.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="5.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="10.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="9.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="4.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="8.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="7.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="55" max="55" width="4.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="58" max="58" width="8.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="59" max="59" width="13.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="6.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="61" max="61" width="4" style="3" hidden="1" customWidth="1"/>
+    <col min="62" max="62" width="11.42578125" style="1"/>
+    <col min="63" max="63" width="11.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="87.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="38.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:65" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="22" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>1099</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>1100</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>1101</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>1102</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>1103</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="28" t="s">
+        <v>1111</v>
+      </c>
+      <c r="V1" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="27" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AC1" s="27" t="s">
+        <v>1105</v>
+      </c>
+      <c r="AD1" s="29" t="s">
+        <v>1106</v>
+      </c>
+      <c r="AE1" s="27" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AF1" s="27" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AG1" s="30" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AH1" s="30" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AI1" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="31" t="s">
+        <v>1073</v>
+      </c>
+      <c r="BE1" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="32" t="s">
+        <v>1074</v>
+      </c>
+      <c r="BH1" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="34" t="s">
+        <v>1075</v>
+      </c>
+      <c r="BL1" s="34"/>
+    </row>
+    <row r="2" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A2" s="41" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C2" s="7">
+        <v>44940</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>855</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>856</v>
+      </c>
+      <c r="F2" s="7">
+        <v>44940</v>
+      </c>
+      <c r="G2" s="7">
+        <v>44940</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="3">
+        <v>-413.48</v>
+      </c>
+      <c r="N2" s="3">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="Q2" s="3">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>861</v>
+      </c>
+      <c r="V2" s="15">
+        <v>9623141</v>
+      </c>
+      <c r="W2" s="15">
+        <v>4011101</v>
+      </c>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="48">
+        <f t="shared" ref="Y2:Y9" si="0">IF(D2=2,(VLOOKUP(S2,$BK$22:$BL$23,2,0)),(VLOOKUP(S2,$BK$20:$BL$21,2,0)))</f>
+        <v>4212101</v>
+      </c>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>44940</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>10415538</v>
+      </c>
+      <c r="AI2" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="AJ2" s="3">
+        <v>6</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="BK2" s="42" t="s">
+        <v>1091</v>
+      </c>
+      <c r="BL2" s="42" t="s">
+        <v>1092</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A3" s="41" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C3" s="7">
+        <v>44972</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" s="7">
+        <v>44972</v>
+      </c>
+      <c r="G3" s="7">
+        <v>44972</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="I3" s="3">
+        <v>340.95</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="3">
+        <v>61.37</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="U3" s="14" t="s">
+        <v>864</v>
+      </c>
+      <c r="V3" s="15">
+        <v>9623141</v>
+      </c>
+      <c r="W3" s="15">
+        <v>4011101</v>
+      </c>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="48">
+        <f t="shared" si="0"/>
+        <v>4212101</v>
+      </c>
+      <c r="AD3" s="7"/>
+      <c r="BK3" s="43">
+        <v>9</v>
+      </c>
+      <c r="BL3" s="43" t="s">
+        <v>1076</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="4" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A4" s="41" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C4" s="7">
+        <v>44977</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="F4" s="7">
+        <v>44977</v>
+      </c>
+      <c r="G4" s="7">
+        <v>44977</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1283.05</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="3">
+        <v>230.95</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>864</v>
+      </c>
+      <c r="V4" s="15">
+        <v>9623141</v>
+      </c>
+      <c r="W4" s="15">
+        <v>4011101</v>
+      </c>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="48">
+        <f t="shared" si="0"/>
+        <v>4212101</v>
+      </c>
+      <c r="Z4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="7"/>
+      <c r="BK4" s="43">
+        <v>8</v>
+      </c>
+      <c r="BL4" s="43" t="s">
+        <v>1078</v>
+      </c>
+      <c r="BM4" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="5" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A5" s="41" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C5" s="7">
+        <v>44976</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5" s="7">
+        <v>44976</v>
+      </c>
+      <c r="G5" s="7">
+        <v>44976</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>865</v>
+      </c>
+      <c r="V5" s="15">
+        <v>9623141</v>
+      </c>
+      <c r="W5" s="15">
+        <v>4011101</v>
+      </c>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="48">
+        <f t="shared" si="0"/>
+        <v>4212101</v>
+      </c>
+      <c r="AD5" s="7"/>
+      <c r="BK5" s="43">
+        <v>10</v>
+      </c>
+      <c r="BL5" s="43" t="s">
+        <v>1077</v>
+      </c>
+      <c r="BM5" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="6" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A6" s="41" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C6" s="7">
+        <v>44958</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="7">
+        <v>44958</v>
+      </c>
+      <c r="G6" s="7">
+        <v>44958</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1135.55</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="3">
+        <v>204.4</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="U6" s="14" t="s">
+        <v>866</v>
+      </c>
+      <c r="V6" s="15">
+        <v>3351511</v>
+      </c>
+      <c r="W6" s="15">
+        <v>4011101</v>
+      </c>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="48">
+        <f t="shared" si="0"/>
+        <v>4212101</v>
+      </c>
+      <c r="AD6" s="7"/>
+      <c r="BK6" s="43">
+        <v>19</v>
+      </c>
+      <c r="BL6" s="43" t="s">
+        <v>1080</v>
+      </c>
+      <c r="BM6" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="7" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A7" s="41" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C7" s="7">
+        <v>45084</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>862</v>
+      </c>
+      <c r="F7" s="7">
+        <v>45084</v>
+      </c>
+      <c r="G7" s="7">
+        <v>45084</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>863</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1540</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="3">
+        <v>277.2</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="U7" s="21" t="s">
+        <v>867</v>
+      </c>
+      <c r="V7" s="15">
+        <v>6341413</v>
+      </c>
+      <c r="W7" s="15">
+        <v>4011101</v>
+      </c>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="48">
+        <f t="shared" si="0"/>
+        <v>4212101</v>
+      </c>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD7" s="7">
+        <v>45084</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>146623432</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>44431</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>14151253</v>
+      </c>
+      <c r="BD7" s="13">
+        <v>9</v>
+      </c>
+      <c r="BG7" s="15" t="s">
+        <v>1093</v>
+      </c>
+      <c r="BK7" s="43">
+        <v>24</v>
+      </c>
+      <c r="BL7" s="43" t="s">
+        <v>1084</v>
+      </c>
+      <c r="BM7" s="1" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="8" spans="1:65" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="41" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="7">
+        <v>44940</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>857</v>
+      </c>
+      <c r="F8" s="7">
+        <v>44940</v>
+      </c>
+      <c r="G8" s="7">
+        <v>44940</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="I8" s="16">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16">
+        <v>413.48</v>
+      </c>
+      <c r="M8" s="16"/>
+      <c r="N8" s="3">
+        <v>18</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="T8" s="16"/>
+      <c r="U8" s="14" t="s">
+        <v>1072</v>
+      </c>
+      <c r="V8" s="15">
+        <v>9623141</v>
+      </c>
+      <c r="W8" s="15">
+        <v>4011101</v>
+      </c>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="48">
+        <f t="shared" si="0"/>
+        <v>4212101</v>
+      </c>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16">
+        <v>42111</v>
+      </c>
+      <c r="AB8" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="16"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="16"/>
+      <c r="AI8" s="16"/>
+      <c r="AJ8" s="16"/>
+      <c r="AK8" s="16"/>
+      <c r="AL8" s="16"/>
+      <c r="AM8" s="16"/>
+      <c r="AN8" s="16"/>
+      <c r="AO8" s="16"/>
+      <c r="AP8" s="16"/>
+      <c r="AQ8" s="16"/>
+      <c r="AR8" s="16"/>
+      <c r="AS8" s="16"/>
+      <c r="AT8" s="16"/>
+      <c r="AU8" s="16"/>
+      <c r="AV8" s="16"/>
+      <c r="AW8" s="16"/>
+      <c r="AX8" s="16"/>
+      <c r="AY8" s="16"/>
+      <c r="AZ8" s="16"/>
+      <c r="BA8" s="16"/>
+      <c r="BB8" s="16"/>
+      <c r="BC8" s="16"/>
+      <c r="BD8" s="16"/>
+      <c r="BE8" s="16"/>
+      <c r="BF8" s="16"/>
+      <c r="BG8" s="16"/>
+      <c r="BH8" s="16"/>
+      <c r="BI8" s="16"/>
+      <c r="BJ8" s="1"/>
+      <c r="BK8" s="43">
+        <v>30</v>
+      </c>
+      <c r="BL8" s="43" t="s">
+        <v>1087</v>
+      </c>
+      <c r="BM8" s="1" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="9" spans="1:65" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="41" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="7">
+        <v>45077</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F9" s="7">
+        <v>45077</v>
+      </c>
+      <c r="G9" s="7">
+        <v>45077</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>863</v>
+      </c>
+      <c r="I9" s="18">
+        <v>1200</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18">
+        <v>23</v>
+      </c>
+      <c r="M9" s="18"/>
+      <c r="N9" s="3">
+        <v>216</v>
+      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="T9" s="18"/>
+      <c r="U9" s="14" t="s">
+        <v>1072</v>
+      </c>
+      <c r="V9" s="15">
+        <v>6311111</v>
+      </c>
+      <c r="W9" s="15">
+        <v>4011101</v>
+      </c>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="48">
+        <f t="shared" si="0"/>
+        <v>4212101</v>
+      </c>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="19">
+        <v>42111</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="18"/>
+      <c r="AJ9" s="18"/>
+      <c r="AK9" s="18"/>
+      <c r="AL9" s="18"/>
+      <c r="AM9" s="18"/>
+      <c r="AN9" s="18"/>
+      <c r="AO9" s="18"/>
+      <c r="AP9" s="18"/>
+      <c r="AQ9" s="18"/>
+      <c r="AR9" s="18"/>
+      <c r="AS9" s="18"/>
+      <c r="AT9" s="18"/>
+      <c r="AU9" s="18"/>
+      <c r="AV9" s="18"/>
+      <c r="AW9" s="18"/>
+      <c r="AX9" s="18"/>
+      <c r="AY9" s="18"/>
+      <c r="AZ9" s="18"/>
+      <c r="BA9" s="18"/>
+      <c r="BB9" s="18"/>
+      <c r="BC9" s="18"/>
+      <c r="BD9" s="18"/>
+      <c r="BE9" s="18"/>
+      <c r="BF9" s="18"/>
+      <c r="BG9" s="18"/>
+      <c r="BH9" s="18"/>
+      <c r="BI9" s="18"/>
+      <c r="BJ9" s="1"/>
+      <c r="BK9" s="43">
+        <v>37</v>
+      </c>
+      <c r="BL9" s="43" t="s">
+        <v>1088</v>
+      </c>
+      <c r="BM9" s="1" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="10" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="AD10" s="3"/>
+      <c r="BK10" s="43">
+        <v>25</v>
+      </c>
+      <c r="BL10" s="43" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="11" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="AD11" s="3"/>
+      <c r="BK11" s="43">
+        <v>12</v>
+      </c>
+      <c r="BL11" s="43" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="12" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="AD12" s="3"/>
+      <c r="BK12" s="43">
+        <v>20</v>
+      </c>
+      <c r="BL12" s="43" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="13" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="AD13" s="3"/>
+      <c r="BK13" s="43">
+        <v>21</v>
+      </c>
+      <c r="BL13" s="43" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="14" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="BK14" s="43">
+        <v>22</v>
+      </c>
+      <c r="BL14" s="43" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="15" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="BK15" s="43">
+        <v>27</v>
+      </c>
+      <c r="BL15" s="43" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="16" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="BK16" s="43">
+        <v>26</v>
+      </c>
+      <c r="BL16" s="43" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="17" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BK17" s="43">
+        <v>40</v>
+      </c>
+      <c r="BL17" s="43" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="20" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BK20" s="35" t="s">
+        <v>854</v>
+      </c>
+      <c r="BL20" s="36">
+        <v>4212101</v>
+      </c>
+      <c r="BM20" s="35" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="21" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BK21" s="35" t="s">
+        <v>1113</v>
+      </c>
+      <c r="BL21" s="36">
+        <v>4212201</v>
+      </c>
+      <c r="BM21" s="35" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="22" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BK22" s="35" t="s">
+        <v>854</v>
+      </c>
+      <c r="BL22" s="1">
+        <v>4241101</v>
+      </c>
+      <c r="BM22" s="35" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="23" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BK23" s="35" t="s">
+        <v>1113</v>
+      </c>
+      <c r="BL23" s="1">
+        <v>4241201</v>
+      </c>
+      <c r="BM23" s="35" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="24" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BL24" s="37" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="25" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BL25" s="35" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="26" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BL26" s="38" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="27" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BL27" s="35" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="28" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BL28" s="35" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="30" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BL30" s="37" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="31" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BK31" s="35">
+        <v>1</v>
+      </c>
+      <c r="BL31" s="35" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="32" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BK32" s="35">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="BL32" s="35" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="33" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BK33" s="35">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="BL33" s="35" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="34" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BK34" s="35">
+        <v>7</v>
+      </c>
+      <c r="BL34" s="35" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="35" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BK35" s="35">
+        <v>8</v>
+      </c>
+      <c r="BL35" s="35" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="36" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BK36" s="35">
+        <v>10</v>
+      </c>
+      <c r="BL36" s="35" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="37" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BK37" s="35">
+        <v>14</v>
+      </c>
+      <c r="BL37" s="35" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="38" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BK38" s="35">
+        <v>91</v>
+      </c>
+      <c r="BL38" s="35" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="39" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BK39" s="35">
+        <v>97</v>
+      </c>
+      <c r="BL39" s="35" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="40" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BK40" s="35">
+        <v>0</v>
+      </c>
+      <c r="BL40" s="35" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="42" spans="63:65" ht="15" x14ac:dyDescent="0.25">
+      <c r="BK42" s="39" t="s">
+        <v>1133</v>
+      </c>
+      <c r="BL42" s="39" t="s">
+        <v>1094</v>
+      </c>
+      <c r="BM42" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="43" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK43" s="40">
+        <v>1</v>
+      </c>
+      <c r="BL43" s="40" t="s">
+        <v>1135</v>
+      </c>
+      <c r="BM43" s="40">
+        <v>20553556733</v>
+      </c>
+    </row>
+    <row r="44" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK44" s="40">
+        <v>2</v>
+      </c>
+      <c r="BL44" s="40" t="s">
+        <v>1136</v>
+      </c>
+      <c r="BM44" s="40">
+        <v>20601464340</v>
+      </c>
+    </row>
+    <row r="45" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK45" s="40">
+        <v>3</v>
+      </c>
+      <c r="BL45" s="40" t="s">
+        <v>1137</v>
+      </c>
+      <c r="BM45" s="40">
+        <v>20602771840</v>
+      </c>
+    </row>
+    <row r="46" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK46" s="40">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="BL46" s="40" t="s">
+        <v>1138</v>
+      </c>
+      <c r="BM46" s="40">
+        <v>20563077701</v>
+      </c>
+    </row>
+    <row r="47" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK47" s="40">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="BL47" s="40" t="s">
+        <v>1139</v>
+      </c>
+      <c r="BM47" s="40">
+        <v>20554375724</v>
+      </c>
+    </row>
+    <row r="48" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK48" s="40">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="BL48" s="40" t="s">
+        <v>1140</v>
+      </c>
+      <c r="BM48" s="40">
+        <v>20553973504</v>
+      </c>
+    </row>
+    <row r="49" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK49" s="40">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="BL49" s="40" t="s">
+        <v>1141</v>
+      </c>
+      <c r="BM49" s="40">
+        <v>20553974900</v>
+      </c>
+    </row>
+    <row r="50" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK50" s="40">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="BL50" s="40" t="s">
+        <v>1142</v>
+      </c>
+      <c r="BM50" s="40">
+        <v>20603277326</v>
+      </c>
+    </row>
+    <row r="51" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK51" s="40">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="BL51" s="40" t="s">
+        <v>1143</v>
+      </c>
+      <c r="BM51" s="40">
+        <v>20546851142</v>
+      </c>
+    </row>
+    <row r="52" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK52" s="40">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="BL52" s="40" t="s">
+        <v>1144</v>
+      </c>
+      <c r="BM52" s="40">
+        <v>20602295134</v>
+      </c>
+    </row>
+    <row r="53" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK53" s="40">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="BL53" s="40" t="s">
+        <v>1145</v>
+      </c>
+      <c r="BM53" s="40">
+        <v>20603605773</v>
+      </c>
+    </row>
+    <row r="54" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK54" s="40">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="BL54" s="40" t="s">
+        <v>1146</v>
+      </c>
+      <c r="BM54" s="40">
+        <v>20603604955</v>
+      </c>
+    </row>
+    <row r="55" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK55" s="40">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="BL55" s="40" t="s">
+        <v>1147</v>
+      </c>
+      <c r="BM55" s="40">
+        <v>20603605439</v>
+      </c>
+    </row>
+    <row r="56" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK56" s="40">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="BL56" s="40" t="s">
+        <v>1148</v>
+      </c>
+      <c r="BM56" s="40">
+        <v>20603604882</v>
+      </c>
+    </row>
+    <row r="57" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK57" s="40">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="BL57" s="40" t="s">
+        <v>1149</v>
+      </c>
+      <c r="BM57" s="40">
+        <v>20603923864</v>
+      </c>
+    </row>
+    <row r="58" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK58" s="40">
         <v>16</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="BL58" s="40" t="s">
+        <v>1150</v>
+      </c>
+      <c r="BM58" s="40">
+        <v>20604775800</v>
+      </c>
+    </row>
+    <row r="59" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK59" s="40">
         <v>17</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="BL59" s="40" t="s">
+        <v>1151</v>
+      </c>
+      <c r="BM59" s="40">
+        <v>20605657410</v>
+      </c>
+    </row>
+    <row r="60" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK60" s="40">
         <v>18</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="BL60" s="40" t="s">
+        <v>1152</v>
+      </c>
+      <c r="BM60" s="40">
+        <v>20606379324</v>
+      </c>
+    </row>
+    <row r="61" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK61" s="40">
         <v>19</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="BL61" s="40" t="s">
+        <v>1153</v>
+      </c>
+      <c r="BM61" s="40">
+        <v>20606561327</v>
+      </c>
+    </row>
+    <row r="62" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK62" s="40">
         <v>20</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="BL62" s="40" t="s">
+        <v>1154</v>
+      </c>
+      <c r="BM62" s="40">
+        <v>20601464111</v>
+      </c>
+    </row>
+    <row r="63" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK63" s="40">
         <v>21</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="BL63" s="40" t="s">
+        <v>1155</v>
+      </c>
+      <c r="BM63" s="40">
+        <v>20603605285</v>
+      </c>
+    </row>
+    <row r="64" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK64" s="40">
         <v>22</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="BL64" s="40" t="s">
+        <v>1156</v>
+      </c>
+      <c r="BM64" s="40">
+        <v>20607538400</v>
+      </c>
+    </row>
+    <row r="65" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK65" s="40">
         <v>23</v>
       </c>
-      <c r="Y1" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" s="23" t="s">
-        <v>1077</v>
-      </c>
-      <c r="BH1" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI1" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="C2" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>856</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>857</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="L2" s="10">
-        <v>-413.48</v>
-      </c>
-      <c r="N2" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="10">
-        <v>0</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>854</v>
-      </c>
-      <c r="U2" s="20" t="s">
-        <v>863</v>
-      </c>
-      <c r="V2" s="19">
-        <v>60390</v>
-      </c>
-      <c r="W2" s="19">
-        <v>40111</v>
-      </c>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12">
-        <v>42111</v>
-      </c>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC2" s="10" t="s">
-        <v>858</v>
-      </c>
-      <c r="AD2" s="15">
-        <v>44210</v>
-      </c>
-      <c r="AG2" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="AH2" s="10" t="s">
-        <v>859</v>
-      </c>
-      <c r="AI2" s="10">
-        <v>1</v>
-      </c>
-      <c r="AJ2" s="10">
-        <v>6</v>
-      </c>
-      <c r="AL2" s="10" t="s">
-        <v>860</v>
-      </c>
-      <c r="AM2" s="10" t="s">
-        <v>861</v>
-      </c>
-      <c r="AN2" s="10" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="C3" s="21" t="s">
-        <v>493</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>493</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>493</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>486</v>
-      </c>
-      <c r="I3" s="10">
-        <v>340.95</v>
-      </c>
-      <c r="N3" s="10">
-        <v>61.37</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>854</v>
-      </c>
-      <c r="U3" s="13" t="s">
-        <v>869</v>
-      </c>
-      <c r="V3" s="19">
-        <v>60390</v>
-      </c>
-      <c r="W3" s="19">
-        <v>40111</v>
-      </c>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22">
-        <v>42111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="C4" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>499</v>
-      </c>
-      <c r="I4" s="10">
-        <v>1283.05</v>
-      </c>
-      <c r="N4" s="10">
-        <v>230.95</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>854</v>
-      </c>
-      <c r="U4" s="13" t="s">
-        <v>869</v>
-      </c>
-      <c r="V4" s="19">
-        <v>60290</v>
-      </c>
-      <c r="W4" s="19">
-        <v>40111</v>
-      </c>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12">
-        <v>42111</v>
-      </c>
-      <c r="Z4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="C5" s="21" t="s">
-        <v>533</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>533</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>533</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>512</v>
-      </c>
-      <c r="N5" s="10">
-        <v>0</v>
-      </c>
-      <c r="S5" s="10" t="s">
-        <v>854</v>
-      </c>
-      <c r="U5" s="13" t="s">
-        <v>870</v>
-      </c>
-      <c r="V5" s="19">
-        <v>60390</v>
-      </c>
-      <c r="W5" s="19">
-        <v>40111</v>
-      </c>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22">
-        <v>42111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="C6" s="21">
-        <v>44228</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>460</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>460</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>461</v>
-      </c>
-      <c r="I6" s="10">
-        <v>1135.55</v>
-      </c>
-      <c r="N6" s="10">
-        <v>204.4</v>
-      </c>
-      <c r="S6" s="10" t="s">
-        <v>854</v>
-      </c>
-      <c r="U6" s="13" t="s">
-        <v>871</v>
-      </c>
-      <c r="V6" s="19">
-        <v>33515</v>
-      </c>
-      <c r="W6" s="19">
-        <v>40111</v>
-      </c>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22">
-        <v>42111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="C7" s="11" t="s">
-        <v>864</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>865</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>864</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>864</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>866</v>
-      </c>
-      <c r="I7" s="10">
-        <v>1540</v>
-      </c>
-      <c r="N7" s="10">
-        <v>277.2</v>
-      </c>
-      <c r="S7" s="10" t="s">
-        <v>854</v>
-      </c>
-      <c r="U7" s="13" t="s">
-        <v>872</v>
-      </c>
-      <c r="V7" s="19" t="s">
-        <v>867</v>
-      </c>
-      <c r="W7" s="19">
-        <v>40111</v>
-      </c>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12">
-        <v>42111</v>
-      </c>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD7" s="15">
-        <v>44431</v>
-      </c>
-      <c r="AE7" s="10">
-        <v>146623432</v>
-      </c>
-      <c r="AF7" s="10">
-        <v>44431</v>
-      </c>
-      <c r="AG7" s="10" t="s">
-        <v>866</v>
-      </c>
-      <c r="AH7" s="10" t="s">
-        <v>868</v>
-      </c>
-      <c r="BD7" s="16">
-        <v>9</v>
-      </c>
-      <c r="BG7" s="23" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="8" spans="1:63" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25" t="s">
-        <v>855</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>858</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>855</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>855</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>458</v>
-      </c>
-      <c r="I8" s="25">
-        <v>100</v>
-      </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25">
-        <v>413.48</v>
-      </c>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25">
-        <v>18</v>
-      </c>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="10" t="s">
-        <v>854</v>
-      </c>
-      <c r="T8" s="25"/>
-      <c r="U8" s="27" t="s">
-        <v>1081</v>
-      </c>
-      <c r="V8" s="19">
-        <v>60390</v>
-      </c>
-      <c r="W8" s="19">
-        <v>40111</v>
-      </c>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="12">
-        <v>42111</v>
-      </c>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25">
-        <v>42111</v>
-      </c>
-      <c r="AB8" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="25"/>
-      <c r="AG8" s="25"/>
-      <c r="AH8" s="25"/>
-      <c r="AI8" s="25"/>
-      <c r="AJ8" s="25"/>
-      <c r="AK8" s="25"/>
-      <c r="AL8" s="25"/>
-      <c r="AM8" s="25"/>
-      <c r="AN8" s="25"/>
-      <c r="AO8" s="25"/>
-      <c r="AP8" s="25"/>
-      <c r="AQ8" s="25"/>
-      <c r="AR8" s="25"/>
-      <c r="AS8" s="25"/>
-      <c r="AT8" s="25"/>
-      <c r="AU8" s="25"/>
-      <c r="AV8" s="25"/>
-      <c r="AW8" s="25"/>
-      <c r="AX8" s="25"/>
-      <c r="AY8" s="25"/>
-      <c r="AZ8" s="25"/>
-      <c r="BA8" s="25"/>
-      <c r="BB8" s="25"/>
-      <c r="BC8" s="25"/>
-      <c r="BD8" s="25"/>
-      <c r="BE8" s="25"/>
-      <c r="BF8" s="25"/>
-      <c r="BG8" s="25"/>
-      <c r="BH8" s="25"/>
-      <c r="BI8" s="25"/>
-      <c r="BJ8" s="17"/>
-      <c r="BK8" s="17"/>
-    </row>
-    <row r="9" spans="1:63" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="27" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>1079</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>1078</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>1078</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>866</v>
-      </c>
-      <c r="I9" s="27">
-        <v>1200</v>
-      </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27">
-        <v>23</v>
-      </c>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27">
-        <v>216</v>
-      </c>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="10" t="s">
-        <v>854</v>
-      </c>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27" t="s">
-        <v>1081</v>
-      </c>
-      <c r="V9" s="19" t="s">
-        <v>1080</v>
-      </c>
-      <c r="W9" s="19">
-        <v>40111</v>
-      </c>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="12">
-        <v>42111</v>
-      </c>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="28">
-        <v>42111</v>
-      </c>
-      <c r="AB9" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="28"/>
-      <c r="AH9" s="29"/>
-      <c r="AI9" s="27"/>
-      <c r="AJ9" s="27"/>
-      <c r="AK9" s="27"/>
-      <c r="AL9" s="27"/>
-      <c r="AM9" s="27"/>
-      <c r="AN9" s="27"/>
-      <c r="AO9" s="27"/>
-      <c r="AP9" s="27"/>
-      <c r="AQ9" s="27"/>
-      <c r="AR9" s="27"/>
-      <c r="AS9" s="27"/>
-      <c r="AT9" s="27"/>
-      <c r="AU9" s="27"/>
-      <c r="AV9" s="27"/>
-      <c r="AW9" s="27"/>
-      <c r="AX9" s="27"/>
-      <c r="AY9" s="27"/>
-      <c r="AZ9" s="27"/>
-      <c r="BA9" s="27"/>
-      <c r="BB9" s="27"/>
-      <c r="BC9" s="27"/>
-      <c r="BD9" s="27"/>
-      <c r="BE9" s="27"/>
-      <c r="BF9" s="27"/>
-      <c r="BG9" s="27"/>
-      <c r="BH9" s="27"/>
-      <c r="BI9" s="27"/>
-      <c r="BJ9" s="17"/>
-      <c r="BK9" s="17"/>
-    </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="AD10" s="10"/>
-    </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="AD11" s="10"/>
-    </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="AD12" s="10"/>
-    </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="AD13" s="10"/>
+      <c r="BL65" s="40" t="s">
+        <v>1157</v>
+      </c>
+      <c r="BM65" s="40">
+        <v>20607539040</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E10:E1048576 E5:E7 C8:C9 E1">
+  <mergeCells count="1">
+    <mergeCell ref="BK1:BL1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E10:E1048576 E5:E7 C8:C9">
+    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="duplicateValues" dxfId="6" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F9">
     <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  <conditionalFormatting sqref="G8:G9">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  <conditionalFormatting sqref="AD8:AD9">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S1048576">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"MN,ME"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{4A5235F1-CFDC-4EB8-9E8C-DD2941E3F111}">
+      <formula1>$BL$43:$BL$65</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Utilizar solo opciones _x000a_para Factura utilizar &quot;Ninguno&quot;" sqref="B2:B1048576" xr:uid="{F7AFD8C9-4930-4EF2-9087-A3B2D634D85E}">
+      <formula1>BL$25:BL$28</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:BL402"/>
   <sheetViews>
@@ -4888,7 +6144,7 @@
         <v>458</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="X2" s="8" t="s">
         <v>596</v>
@@ -4934,7 +6190,7 @@
         <v>458</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="X3" s="8" t="s">
         <v>596</v>
@@ -4980,7 +6236,7 @@
         <v>459</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="X4" s="8" t="s">
         <v>597</v>
@@ -5072,7 +6328,7 @@
         <v>463</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="X6" s="8" t="s">
         <v>599</v>
@@ -5118,7 +6374,7 @@
         <v>464</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="X7" s="8" t="s">
         <v>600</v>
@@ -5164,7 +6420,7 @@
         <v>463</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="X8" s="8" t="s">
         <v>601</v>
@@ -5256,7 +6512,7 @@
         <v>467</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="X10" s="8" t="s">
         <v>603</v>
@@ -5302,7 +6558,7 @@
         <v>468</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="X11" s="8" t="s">
         <v>604</v>
@@ -5348,7 +6604,7 @@
         <v>469</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="X12" s="8" t="s">
         <v>605</v>
@@ -5394,7 +6650,7 @@
         <v>470</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="X13" s="8" t="s">
         <v>606</v>
@@ -5440,7 +6696,7 @@
         <v>471</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="X14" s="8" t="s">
         <v>607</v>
@@ -5486,7 +6742,7 @@
         <v>472</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="X15" s="8" t="s">
         <v>608</v>
@@ -5532,7 +6788,7 @@
         <v>473</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="X16" s="8" t="s">
         <v>609</v>
@@ -5578,7 +6834,7 @@
         <v>467</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="X17" s="8" t="s">
         <v>603</v>
@@ -5624,7 +6880,7 @@
         <v>474</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="X18" s="8" t="s">
         <v>610</v>
@@ -5670,7 +6926,7 @@
         <v>476</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="X19" s="8" t="s">
         <v>611</v>
@@ -5716,7 +6972,7 @@
         <v>477</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="X20" s="8" t="s">
         <v>612</v>
@@ -5762,7 +7018,7 @@
         <v>478</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="X21" s="8" t="s">
         <v>613</v>
@@ -5808,7 +7064,7 @@
         <v>479</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="X22" s="8" t="s">
         <v>614</v>
@@ -5854,7 +7110,7 @@
         <v>471</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="X23" s="8" t="s">
         <v>615</v>
@@ -5900,7 +7156,7 @@
         <v>480</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="X24" s="8" t="s">
         <v>616</v>
@@ -5946,7 +7202,7 @@
         <v>477</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="X25" s="8" t="s">
         <v>612</v>
@@ -5992,7 +7248,7 @@
         <v>475</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="X26" s="8" t="s">
         <v>617</v>
@@ -6038,7 +7294,7 @@
         <v>477</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="X27" s="8" t="s">
         <v>618</v>
@@ -6084,7 +7340,7 @@
         <v>467</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="X28" s="8" t="s">
         <v>619</v>
@@ -6130,7 +7386,7 @@
         <v>483</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="X29" s="8" t="s">
         <v>605</v>
@@ -6176,7 +7432,7 @@
         <v>484</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="X30" s="8" t="s">
         <v>620</v>
@@ -6222,7 +7478,7 @@
         <v>485</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="X31" s="8" t="s">
         <v>621</v>
@@ -6268,7 +7524,7 @@
         <v>480</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="X32" s="8" t="s">
         <v>622</v>
@@ -6314,7 +7570,7 @@
         <v>471</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="X33" s="8" t="s">
         <v>607</v>
@@ -6360,7 +7616,7 @@
         <v>486</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="X34" s="8" t="s">
         <v>623</v>
@@ -6406,7 +7662,7 @@
         <v>487</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="X35" s="8" t="s">
         <v>624</v>
@@ -6452,7 +7708,7 @@
         <v>487</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="X36" s="8" t="s">
         <v>623</v>
@@ -6498,7 +7754,7 @@
         <v>458</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="X37" s="8" t="s">
         <v>596</v>
@@ -6544,7 +7800,7 @@
         <v>62</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="X38" s="8" t="s">
         <v>605</v>
@@ -6590,7 +7846,7 @@
         <v>471</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="X39" s="8" t="s">
         <v>607</v>
@@ -6636,7 +7892,7 @@
         <v>485</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="X40" s="8" t="s">
         <v>621</v>
@@ -6682,7 +7938,7 @@
         <v>480</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="X41" s="8" t="s">
         <v>625</v>
@@ -6728,7 +7984,7 @@
         <v>491</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="X42" s="8" t="s">
         <v>626</v>
@@ -6774,7 +8030,7 @@
         <v>492</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="X43" s="8" t="s">
         <v>627</v>
@@ -6820,7 +8076,7 @@
         <v>467</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="X44" s="8" t="s">
         <v>603</v>
@@ -6866,7 +8122,7 @@
         <v>477</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="X45" s="8" t="s">
         <v>612</v>
@@ -6912,7 +8168,7 @@
         <v>494</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="X46" s="8" t="s">
         <v>628</v>
@@ -6958,7 +8214,7 @@
         <v>478</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="X47" s="8" t="s">
         <v>613</v>
@@ -7004,7 +8260,7 @@
         <v>494</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="X48" s="8" t="s">
         <v>629</v>
@@ -7050,7 +8306,7 @@
         <v>497</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="X49" s="8" t="s">
         <v>630</v>
@@ -7096,7 +8352,7 @@
         <v>498</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="X50" s="8" t="s">
         <v>631</v>
@@ -7142,7 +8398,7 @@
         <v>470</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="X51" s="8" t="s">
         <v>632</v>
@@ -7188,7 +8444,7 @@
         <v>499</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="X52" s="8" t="s">
         <v>633</v>
@@ -7234,7 +8490,7 @@
         <v>468</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="X53" s="8" t="s">
         <v>604</v>
@@ -7280,7 +8536,7 @@
         <v>500</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="X54" s="8" t="s">
         <v>634</v>
@@ -7326,7 +8582,7 @@
         <v>467</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="X55" s="8" t="s">
         <v>603</v>
@@ -7372,7 +8628,7 @@
         <v>471</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="X56" s="8" t="s">
         <v>615</v>
@@ -7418,7 +8674,7 @@
         <v>471</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="X57" s="8" t="s">
         <v>635</v>
@@ -7464,7 +8720,7 @@
         <v>477</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="X58" s="8" t="s">
         <v>612</v>
@@ -7510,7 +8766,7 @@
         <v>475</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="X59" s="8" t="s">
         <v>617</v>
@@ -7556,7 +8812,7 @@
         <v>501</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="X60" s="8" t="s">
         <v>636</v>
@@ -7602,7 +8858,7 @@
         <v>458</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="X61" s="8" t="s">
         <v>596</v>
@@ -7648,7 +8904,7 @@
         <v>477</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="X62" s="8" t="s">
         <v>637</v>
@@ -7694,7 +8950,7 @@
         <v>476</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="X63" s="8" t="s">
         <v>611</v>
@@ -7740,7 +8996,7 @@
         <v>471</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="X64" s="8" t="s">
         <v>607</v>
@@ -7786,7 +9042,7 @@
         <v>472</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="X65" s="8" t="s">
         <v>608</v>
@@ -7832,7 +9088,7 @@
         <v>475</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="X66" s="8" t="s">
         <v>638</v>
@@ -7878,7 +9134,7 @@
         <v>467</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="X67" s="8" t="s">
         <v>603</v>
@@ -7924,7 +9180,7 @@
         <v>468</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="X68" s="8" t="s">
         <v>639</v>
@@ -7970,7 +9226,7 @@
         <v>504</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="X69" s="8" t="s">
         <v>640</v>
@@ -8016,7 +9272,7 @@
         <v>459</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="X70" s="8" t="s">
         <v>597</v>
@@ -8062,7 +9318,7 @@
         <v>478</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="X71" s="8" t="s">
         <v>613</v>
@@ -8108,7 +9364,7 @@
         <v>458</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="X72" s="8" t="s">
         <v>596</v>
@@ -8154,7 +9410,7 @@
         <v>505</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="X73" s="8" t="s">
         <v>641</v>
@@ -8200,7 +9456,7 @@
         <v>474</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="X74" s="8" t="s">
         <v>642</v>
@@ -8246,7 +9502,7 @@
         <v>477</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="X75" s="8" t="s">
         <v>637</v>
@@ -8292,7 +9548,7 @@
         <v>471</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="X76" s="8" t="s">
         <v>607</v>
@@ -8338,7 +9594,7 @@
         <v>485</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="X77" s="8" t="s">
         <v>621</v>
@@ -8384,7 +9640,7 @@
         <v>478</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="X78" s="8" t="s">
         <v>613</v>
@@ -8430,7 +9686,7 @@
         <v>468</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="X79" s="8" t="s">
         <v>643</v>
@@ -8476,7 +9732,7 @@
         <v>476</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="X80" s="8" t="s">
         <v>611</v>
@@ -8522,7 +9778,7 @@
         <v>467</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="X81" s="8" t="s">
         <v>603</v>
@@ -8568,7 +9824,7 @@
         <v>510</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="X82" s="8" t="s">
         <v>644</v>
@@ -8614,7 +9870,7 @@
         <v>511</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="X83" s="8" t="s">
         <v>617</v>
@@ -8660,7 +9916,7 @@
         <v>471</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="X84" s="8" t="s">
         <v>607</v>
@@ -8706,7 +9962,7 @@
         <v>487</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="X85" s="8" t="s">
         <v>645</v>
@@ -8752,7 +10008,7 @@
         <v>487</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="X86" s="8" t="s">
         <v>623</v>
@@ -8798,7 +10054,7 @@
         <v>475</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="X87" s="8" t="s">
         <v>617</v>
@@ -8844,7 +10100,7 @@
         <v>459</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="X88" s="8" t="s">
         <v>597</v>
@@ -8890,7 +10146,7 @@
         <v>512</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="X89" s="8" t="s">
         <v>646</v>
@@ -8936,7 +10192,7 @@
         <v>463</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="X90" s="8" t="s">
         <v>614</v>
@@ -8982,7 +10238,7 @@
         <v>513</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="X91" s="8" t="s">
         <v>647</v>
@@ -9028,7 +10284,7 @@
         <v>469</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="X92" s="8" t="s">
         <v>648</v>
@@ -9074,7 +10330,7 @@
         <v>458</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="X93" s="8" t="s">
         <v>596</v>
@@ -9120,7 +10376,7 @@
         <v>458</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="X94" s="8" t="s">
         <v>596</v>
@@ -9166,7 +10422,7 @@
         <v>62</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="X95" s="8" t="s">
         <v>649</v>
@@ -9212,7 +10468,7 @@
         <v>471</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="X96" s="8" t="s">
         <v>607</v>
@@ -9258,7 +10514,7 @@
         <v>480</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="X97" s="8" t="s">
         <v>650</v>
@@ -9304,7 +10560,7 @@
         <v>467</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="X98" s="8" t="s">
         <v>603</v>
@@ -9350,7 +10606,7 @@
         <v>483</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="X99" s="8" t="s">
         <v>651</v>
@@ -9396,7 +10652,7 @@
         <v>477</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="X100" s="8" t="s">
         <v>612</v>
@@ -9442,7 +10698,7 @@
         <v>478</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="X101" s="8" t="s">
         <v>613</v>
@@ -9488,7 +10744,7 @@
         <v>501</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="X102" s="8" t="s">
         <v>652</v>
@@ -9534,7 +10790,7 @@
         <v>485</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="X103" s="8" t="s">
         <v>639</v>
@@ -9580,7 +10836,7 @@
         <v>486</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="X104" s="8" t="s">
         <v>623</v>
@@ -9626,7 +10882,7 @@
         <v>62</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="X105" s="8" t="s">
         <v>653</v>
@@ -9672,7 +10928,7 @@
         <v>62</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="X106" s="8" t="s">
         <v>605</v>
@@ -9718,7 +10974,7 @@
         <v>471</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="X107" s="8" t="s">
         <v>654</v>
@@ -9764,7 +11020,7 @@
         <v>466</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="X108" s="8" t="s">
         <v>655</v>
@@ -9810,7 +11066,7 @@
         <v>475</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="X109" s="8" t="s">
         <v>617</v>
@@ -9856,7 +11112,7 @@
         <v>467</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="X110" s="8" t="s">
         <v>603</v>
@@ -9902,7 +11158,7 @@
         <v>468</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="X111" s="8" t="s">
         <v>604</v>
@@ -9948,7 +11204,7 @@
         <v>466</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="X112" s="8" t="s">
         <v>656</v>
@@ -9994,7 +11250,7 @@
         <v>476</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="X113" s="8" t="s">
         <v>611</v>
@@ -10040,7 +11296,7 @@
         <v>470</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="X114" s="8" t="s">
         <v>657</v>
@@ -10086,7 +11342,7 @@
         <v>477</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="X115" s="8" t="s">
         <v>658</v>
@@ -10132,7 +11388,7 @@
         <v>458</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="X116" s="8" t="s">
         <v>596</v>
@@ -10178,7 +11434,7 @@
         <v>505</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="X117" s="8" t="s">
         <v>659</v>
@@ -10224,7 +11480,7 @@
         <v>478</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="X118" s="8" t="s">
         <v>613</v>
@@ -10270,7 +11526,7 @@
         <v>459</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="X119" s="8" t="s">
         <v>660</v>
@@ -10316,7 +11572,7 @@
         <v>472</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="X120" s="8" t="s">
         <v>608</v>
@@ -10362,7 +11618,7 @@
         <v>494</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="X121" s="8" t="s">
         <v>661</v>
@@ -10408,7 +11664,7 @@
         <v>494</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="X122" s="8" t="s">
         <v>662</v>
@@ -10454,7 +11710,7 @@
         <v>499</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="X123" s="8" t="s">
         <v>649</v>
@@ -10500,7 +11756,7 @@
         <v>62</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="X124" s="8" t="s">
         <v>663</v>
@@ -10546,7 +11802,7 @@
         <v>518</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="X125" s="8" t="s">
         <v>664</v>
@@ -10592,7 +11848,7 @@
         <v>471</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="X126" s="8" t="s">
         <v>607</v>
@@ -10638,7 +11894,7 @@
         <v>480</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="X127" s="8" t="s">
         <v>650</v>
@@ -10684,7 +11940,7 @@
         <v>467</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="X128" s="8" t="s">
         <v>603</v>
@@ -10730,7 +11986,7 @@
         <v>463</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="X129" s="8" t="s">
         <v>665</v>
@@ -10776,7 +12032,7 @@
         <v>477</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="X130" s="8" t="s">
         <v>612</v>
@@ -10822,7 +12078,7 @@
         <v>485</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="X131" s="8" t="s">
         <v>621</v>
@@ -10868,7 +12124,7 @@
         <v>474</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="X132" s="8" t="s">
         <v>666</v>
@@ -10914,7 +12170,7 @@
         <v>521</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="X133" s="8" t="s">
         <v>667</v>
@@ -10960,7 +12216,7 @@
         <v>471</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="X134" s="8" t="s">
         <v>607</v>
@@ -11006,7 +12262,7 @@
         <v>476</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="X135" s="8" t="s">
         <v>611</v>
@@ -11052,7 +12308,7 @@
         <v>468</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="X136" s="8" t="s">
         <v>668</v>
@@ -11098,7 +12354,7 @@
         <v>467</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="X137" s="8" t="s">
         <v>603</v>
@@ -11144,7 +12400,7 @@
         <v>477</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="X138" s="8" t="s">
         <v>612</v>
@@ -11190,7 +12446,7 @@
         <v>524</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="X139" s="8" t="s">
         <v>669</v>
@@ -11236,7 +12492,7 @@
         <v>478</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="X140" s="8" t="s">
         <v>613</v>
@@ -11282,7 +12538,7 @@
         <v>458</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="X141" s="8" t="s">
         <v>596</v>
@@ -11328,7 +12584,7 @@
         <v>459</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="X142" s="8" t="s">
         <v>670</v>
@@ -11374,7 +12630,7 @@
         <v>62</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="X143" s="8" t="s">
         <v>671</v>
@@ -11420,7 +12676,7 @@
         <v>62</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="X144" s="8" t="s">
         <v>672</v>
@@ -11466,7 +12722,7 @@
         <v>491</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="X145" s="8" t="s">
         <v>626</v>
@@ -11512,7 +12768,7 @@
         <v>473</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="X146" s="8" t="s">
         <v>609</v>
@@ -11558,7 +12814,7 @@
         <v>485</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="X147" s="8" t="s">
         <v>621</v>
@@ -11604,7 +12860,7 @@
         <v>471</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="X148" s="8" t="s">
         <v>607</v>
@@ -11650,7 +12906,7 @@
         <v>464</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="X149" s="8" t="s">
         <v>600</v>
@@ -11696,7 +12952,7 @@
         <v>492</v>
       </c>
       <c r="J150" s="3" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="X150" s="8" t="s">
         <v>673</v>
@@ -11742,7 +12998,7 @@
         <v>524</v>
       </c>
       <c r="J151" s="3" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="X151" s="8" t="s">
         <v>674</v>
@@ -11788,7 +13044,7 @@
         <v>458</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="X152" s="8" t="s">
         <v>596</v>
@@ -11834,7 +13090,7 @@
         <v>471</v>
       </c>
       <c r="J153" s="3" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="X153" s="8" t="s">
         <v>607</v>
@@ -11880,7 +13136,7 @@
         <v>480</v>
       </c>
       <c r="J154" s="3" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="X154" s="8" t="s">
         <v>675</v>
@@ -11926,7 +13182,7 @@
         <v>475</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="X155" s="8" t="s">
         <v>617</v>
@@ -11972,7 +13228,7 @@
         <v>467</v>
       </c>
       <c r="J156" s="3" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="X156" s="8" t="s">
         <v>604</v>
@@ -12018,7 +13274,7 @@
         <v>500</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="X157" s="8" t="s">
         <v>634</v>
@@ -12064,7 +13320,7 @@
         <v>468</v>
       </c>
       <c r="J158" s="3" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="X158" s="8" t="s">
         <v>668</v>
@@ -12110,7 +13366,7 @@
         <v>512</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="X159" s="8" t="s">
         <v>646</v>
@@ -12156,7 +13412,7 @@
         <v>512</v>
       </c>
       <c r="J160" s="3" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="X160" s="8" t="s">
         <v>676</v>
@@ -12202,7 +13458,7 @@
         <v>459</v>
       </c>
       <c r="J161" s="3" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="X161" s="8" t="s">
         <v>597</v>
@@ -12248,7 +13504,7 @@
         <v>469</v>
       </c>
       <c r="J162" s="3" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="X162" s="8" t="s">
         <v>677</v>
@@ -12294,7 +13550,7 @@
         <v>478</v>
       </c>
       <c r="J163" s="3" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="X163" s="8" t="s">
         <v>613</v>
@@ -12340,7 +13596,7 @@
         <v>487</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="X164" s="8" t="s">
         <v>678</v>
@@ -12386,7 +13642,7 @@
         <v>463</v>
       </c>
       <c r="J165" s="3" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="X165" s="8" t="s">
         <v>679</v>
@@ -12432,7 +13688,7 @@
         <v>461</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="X166" s="8" t="s">
         <v>680</v>
@@ -12478,7 +13734,7 @@
         <v>458</v>
       </c>
       <c r="J167" s="3" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="X167" s="8" t="s">
         <v>596</v>
@@ -12524,7 +13780,7 @@
         <v>458</v>
       </c>
       <c r="J168" s="3" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="X168" s="8" t="s">
         <v>596</v>
@@ -12570,7 +13826,7 @@
         <v>487</v>
       </c>
       <c r="J169" s="3" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="X169" s="8" t="s">
         <v>681</v>
@@ -12616,7 +13872,7 @@
         <v>530</v>
       </c>
       <c r="J170" s="3" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="X170" s="8" t="s">
         <v>682</v>
@@ -12662,7 +13918,7 @@
         <v>471</v>
       </c>
       <c r="J171" s="3" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="X171" s="8" t="s">
         <v>683</v>
@@ -12708,7 +13964,7 @@
         <v>510</v>
       </c>
       <c r="J172" s="3" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="X172" s="8" t="s">
         <v>644</v>
@@ -12754,7 +14010,7 @@
         <v>480</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="X173" s="8" t="s">
         <v>675</v>
@@ -12800,7 +14056,7 @@
         <v>485</v>
       </c>
       <c r="J174" s="3" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="X174" s="8" t="s">
         <v>621</v>
@@ -12846,7 +14102,7 @@
         <v>467</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="X175" s="8" t="s">
         <v>603</v>
@@ -12892,7 +14148,7 @@
         <v>476</v>
       </c>
       <c r="J176" s="3" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="X176" s="8" t="s">
         <v>611</v>
@@ -12938,7 +14194,7 @@
         <v>472</v>
       </c>
       <c r="J177" s="3" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="X177" s="8" t="s">
         <v>608</v>
@@ -12984,7 +14240,7 @@
         <v>477</v>
       </c>
       <c r="J178" s="3" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="X178" s="8" t="s">
         <v>612</v>
@@ -13030,7 +14286,7 @@
         <v>534</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="X179" s="8" t="s">
         <v>684</v>
@@ -13076,7 +14332,7 @@
         <v>534</v>
       </c>
       <c r="J180" s="3" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="X180" s="8" t="s">
         <v>685</v>
@@ -13122,7 +14378,7 @@
         <v>471</v>
       </c>
       <c r="J181" s="3" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="X181" s="8" t="s">
         <v>607</v>
@@ -13168,7 +14424,7 @@
         <v>477</v>
       </c>
       <c r="J182" s="3" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="X182" s="8" t="s">
         <v>612</v>
@@ -13214,7 +14470,7 @@
         <v>538</v>
       </c>
       <c r="J183" s="3" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="X183" s="8" t="s">
         <v>621</v>
@@ -13260,7 +14516,7 @@
         <v>501</v>
       </c>
       <c r="J184" s="3" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="X184" s="8" t="s">
         <v>636</v>
@@ -13306,7 +14562,7 @@
         <v>458</v>
       </c>
       <c r="J185" s="3" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="X185" s="8" t="s">
         <v>596</v>
@@ -13352,7 +14608,7 @@
         <v>458</v>
       </c>
       <c r="J186" s="3" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="X186" s="8" t="s">
         <v>596</v>
@@ -13398,7 +14654,7 @@
         <v>494</v>
       </c>
       <c r="J187" s="3" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="X187" s="8" t="s">
         <v>662</v>
@@ -13444,7 +14700,7 @@
         <v>494</v>
       </c>
       <c r="J188" s="3" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="X188" s="8" t="s">
         <v>661</v>
@@ -13490,7 +14746,7 @@
         <v>62</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="X189" s="8" t="s">
         <v>605</v>
@@ -13536,7 +14792,7 @@
         <v>485</v>
       </c>
       <c r="J190" s="3" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="X190" s="8" t="s">
         <v>621</v>
@@ -13582,7 +14838,7 @@
         <v>511</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="X191" s="8" t="s">
         <v>686</v>
@@ -13628,7 +14884,7 @@
         <v>492</v>
       </c>
       <c r="J192" s="3" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="X192" s="8" t="s">
         <v>673</v>
@@ -13674,7 +14930,7 @@
         <v>471</v>
       </c>
       <c r="J193" s="3" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="X193" s="8" t="s">
         <v>607</v>
@@ -13720,7 +14976,7 @@
         <v>480</v>
       </c>
       <c r="J194" s="3" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="X194" s="8" t="s">
         <v>687</v>
@@ -13766,7 +15022,7 @@
         <v>467</v>
       </c>
       <c r="J195" s="3" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="X195" s="8" t="s">
         <v>603</v>
@@ -13812,7 +15068,7 @@
         <v>539</v>
       </c>
       <c r="J196" s="3" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="X196" s="8" t="s">
         <v>688</v>
@@ -13858,7 +15114,7 @@
         <v>477</v>
       </c>
       <c r="J197" s="3" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="X197" s="8" t="s">
         <v>612</v>
@@ -13904,7 +15160,7 @@
         <v>512</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="X198" s="8" t="s">
         <v>689</v>
@@ -13950,7 +15206,7 @@
         <v>483</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="X199" s="8" t="s">
         <v>690</v>
@@ -13996,7 +15252,7 @@
         <v>478</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="X200" s="8" t="s">
         <v>613</v>
@@ -14042,7 +15298,7 @@
         <v>470</v>
       </c>
       <c r="J201" s="3" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="X201" s="8" t="s">
         <v>691</v>
@@ -14088,7 +15344,7 @@
         <v>459</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="X202" s="8" t="s">
         <v>692</v>
@@ -14134,7 +15390,7 @@
         <v>475</v>
       </c>
       <c r="J203" s="3" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="X203" s="8" t="s">
         <v>617</v>
@@ -14180,7 +15436,7 @@
         <v>467</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="X204" s="8" t="s">
         <v>603</v>
@@ -14226,7 +15482,7 @@
         <v>512</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="X205" s="8" t="s">
         <v>693</v>
@@ -14272,7 +15528,7 @@
         <v>468</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="X206" s="8" t="s">
         <v>604</v>
@@ -23311,7 +24567,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BL402">
+  <autoFilter ref="A1:BL402" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="9">
       <filters>
         <filter val="#N/A"/>
@@ -23319,10 +24575,10 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"MN,ME"</formula1>
     </dataValidation>
   </dataValidations>
@@ -23332,7 +24588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -24125,9 +25381,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A91"/>
+  <autoFilter ref="A1:A91" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <conditionalFormatting sqref="A1:A91">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HPReserger/Resources/LISTADO DE COMPRAS.xlsx
+++ b/HPReserger/Resources/LISTADO DE COMPRAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HPReserger\HpReserger\HPReserger\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6627428-3F03-426E-A35C-4A5722AE2FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2BC3A0-BBC3-4D4B-903D-E6FEE2224E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3273" uniqueCount="1160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3272" uniqueCount="1161">
   <si>
     <t xml:space="preserve">Vou.Origen </t>
   </si>
@@ -3531,9 +3531,6 @@
     <t>Descripcion</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Empresa</t>
   </si>
   <si>
@@ -3615,9 +3612,6 @@
     <t>Reembolso Gasto</t>
   </si>
   <si>
-    <t>Entrega a Rendir</t>
-  </si>
-  <si>
     <t>Comprobantes</t>
   </si>
   <si>
@@ -3730,6 +3724,15 @@
   </si>
   <si>
     <t>PASAPORTE</t>
+  </si>
+  <si>
+    <t>RENTA 4TA</t>
+  </si>
+  <si>
+    <t>Cta Renta</t>
+  </si>
+  <si>
+    <t>Entregas a Rendir</t>
   </si>
 </sst>
 </file>
@@ -3739,13 +3742,19 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -3925,99 +3934,98 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -4442,7 +4450,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13" style="41" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" style="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.85546875" style="6" bestFit="1" customWidth="1"/>
@@ -4451,27 +4459,27 @@
     <col min="8" max="8" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.42578125" style="3" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.28515625" style="3" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="3" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="3" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="3" customWidth="1"/>
+    <col min="17" max="18" width="14.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="3" customWidth="1"/>
     <col min="20" max="20" width="4.85546875" style="3" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="23.85546875" style="14" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.5703125" style="15" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12" style="15" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="12.85546875" style="49" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="12.5703125" style="3" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="13.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="11.140625" style="3" hidden="1" customWidth="1"/>
     <col min="33" max="33" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="4.7109375" style="3" hidden="1" customWidth="1"/>
@@ -4497,31 +4505,31 @@
     <col min="56" max="56" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="9.28515625" style="3" hidden="1" customWidth="1"/>
     <col min="58" max="58" width="8.28515625" style="3" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="13.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.7109375" style="15" hidden="1" customWidth="1"/>
     <col min="60" max="60" width="6.140625" style="3" hidden="1" customWidth="1"/>
     <col min="61" max="61" width="4" style="3" hidden="1" customWidth="1"/>
     <col min="62" max="62" width="11.42578125" style="1"/>
-    <col min="63" max="63" width="11.28515625" style="35" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="87.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="11.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="87.85546875" style="34" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="38.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="66" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>1094</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>1095</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>1096</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>5</v>
@@ -4530,31 +4538,31 @@
         <v>6</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>1097</v>
+      </c>
+      <c r="I1" s="27" t="s">
         <v>1098</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="J1" s="27" t="s">
         <v>1099</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="K1" s="27" t="s">
         <v>1100</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="L1" s="22" t="s">
         <v>1101</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>1102</v>
       </c>
       <c r="M1" s="22" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>1103</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>15</v>
+        <v>1102</v>
+      </c>
+      <c r="O1" s="46" t="s">
+        <v>1158</v>
+      </c>
+      <c r="P1" s="46" t="s">
+        <v>1159</v>
       </c>
       <c r="Q1" s="22" t="s">
         <v>16</v>
@@ -4569,7 +4577,7 @@
         <v>19</v>
       </c>
       <c r="U1" s="28" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="V1" s="32" t="s">
         <v>21</v>
@@ -4580,7 +4588,7 @@
       <c r="X1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="47" t="s">
+      <c r="Y1" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Z1" s="22" t="s">
@@ -4590,25 +4598,25 @@
         <v>26</v>
       </c>
       <c r="AB1" s="27" t="s">
+        <v>1103</v>
+      </c>
+      <c r="AC1" s="27" t="s">
         <v>1104</v>
       </c>
-      <c r="AC1" s="27" t="s">
+      <c r="AD1" s="29" t="s">
         <v>1105</v>
       </c>
-      <c r="AD1" s="29" t="s">
+      <c r="AE1" s="27" t="s">
         <v>1106</v>
       </c>
-      <c r="AE1" s="27" t="s">
+      <c r="AF1" s="27" t="s">
         <v>1107</v>
       </c>
-      <c r="AF1" s="27" t="s">
+      <c r="AG1" s="30" t="s">
         <v>1108</v>
       </c>
-      <c r="AG1" s="30" t="s">
+      <c r="AH1" s="30" t="s">
         <v>1109</v>
-      </c>
-      <c r="AH1" s="30" t="s">
-        <v>1110</v>
       </c>
       <c r="AI1" s="22" t="s">
         <v>34</v>
@@ -4691,14 +4699,14 @@
       <c r="BI1" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" s="34" t="s">
+      <c r="BK1" s="45" t="s">
         <v>1075</v>
       </c>
-      <c r="BL1" s="34"/>
+      <c r="BL1" s="45"/>
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.15">
-      <c r="A2" s="41" t="s">
-        <v>1135</v>
+      <c r="A2" s="39" t="s">
+        <v>1133</v>
       </c>
       <c r="C2" s="7">
         <v>44940</v>
@@ -4742,8 +4750,8 @@
       <c r="W2" s="15">
         <v>4011101</v>
       </c>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="48">
+      <c r="X2" s="42"/>
+      <c r="Y2" s="39">
         <f t="shared" ref="Y2:Y9" si="0">IF(D2=2,(VLOOKUP(S2,$BK$22:$BL$23,2,0)),(VLOOKUP(S2,$BK$20:$BL$21,2,0)))</f>
         <v>4212101</v>
       </c>
@@ -4759,7 +4767,7 @@
         <v>44940</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="AH2" s="3">
         <v>10415538</v>
@@ -4779,10 +4787,10 @@
       <c r="AN2" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="BK2" s="42" t="s">
+      <c r="BK2" s="40" t="s">
         <v>1091</v>
       </c>
-      <c r="BL2" s="42" t="s">
+      <c r="BL2" s="40" t="s">
         <v>1092</v>
       </c>
       <c r="BM2" s="1" t="s">
@@ -4790,8 +4798,8 @@
       </c>
     </row>
     <row r="3" spans="1:65" x14ac:dyDescent="0.15">
-      <c r="A3" s="41" t="s">
-        <v>1135</v>
+      <c r="A3" s="39" t="s">
+        <v>1133</v>
       </c>
       <c r="C3" s="7">
         <v>44972</v>
@@ -4832,16 +4840,16 @@
       <c r="W3" s="15">
         <v>4011101</v>
       </c>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="48">
+      <c r="X3" s="42"/>
+      <c r="Y3" s="39">
         <f t="shared" si="0"/>
         <v>4212101</v>
       </c>
       <c r="AD3" s="7"/>
-      <c r="BK3" s="43">
+      <c r="BK3" s="41">
         <v>9</v>
       </c>
-      <c r="BL3" s="43" t="s">
+      <c r="BL3" s="41" t="s">
         <v>1076</v>
       </c>
       <c r="BM3" s="1" t="s">
@@ -4849,8 +4857,8 @@
       </c>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.15">
-      <c r="A4" s="41" t="s">
-        <v>1135</v>
+      <c r="A4" s="39" t="s">
+        <v>1133</v>
       </c>
       <c r="C4" s="7">
         <v>44977</v>
@@ -4891,8 +4899,8 @@
       <c r="W4" s="15">
         <v>4011101</v>
       </c>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="48">
+      <c r="X4" s="42"/>
+      <c r="Y4" s="39">
         <f t="shared" si="0"/>
         <v>4212101</v>
       </c>
@@ -4903,10 +4911,10 @@
         <v>0</v>
       </c>
       <c r="AD4" s="7"/>
-      <c r="BK4" s="43">
+      <c r="BK4" s="41">
         <v>8</v>
       </c>
-      <c r="BL4" s="43" t="s">
+      <c r="BL4" s="41" t="s">
         <v>1078</v>
       </c>
       <c r="BM4" s="1" t="s">
@@ -4914,8 +4922,8 @@
       </c>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.15">
-      <c r="A5" s="41" t="s">
-        <v>1135</v>
+      <c r="A5" s="39" t="s">
+        <v>1133</v>
       </c>
       <c r="C5" s="7">
         <v>44976</v>
@@ -4953,16 +4961,16 @@
       <c r="W5" s="15">
         <v>4011101</v>
       </c>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="48">
+      <c r="X5" s="42"/>
+      <c r="Y5" s="39">
         <f t="shared" si="0"/>
         <v>4212101</v>
       </c>
       <c r="AD5" s="7"/>
-      <c r="BK5" s="43">
+      <c r="BK5" s="41">
         <v>10</v>
       </c>
-      <c r="BL5" s="43" t="s">
+      <c r="BL5" s="41" t="s">
         <v>1077</v>
       </c>
       <c r="BM5" s="1" t="s">
@@ -4970,8 +4978,8 @@
       </c>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.15">
-      <c r="A6" s="41" t="s">
-        <v>1135</v>
+      <c r="A6" s="39" t="s">
+        <v>1133</v>
       </c>
       <c r="C6" s="7">
         <v>44958</v>
@@ -5012,16 +5020,16 @@
       <c r="W6" s="15">
         <v>4011101</v>
       </c>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="48">
+      <c r="X6" s="43"/>
+      <c r="Y6" s="39">
         <f t="shared" si="0"/>
         <v>4212101</v>
       </c>
       <c r="AD6" s="7"/>
-      <c r="BK6" s="43">
+      <c r="BK6" s="41">
         <v>19</v>
       </c>
-      <c r="BL6" s="43" t="s">
+      <c r="BL6" s="41" t="s">
         <v>1080</v>
       </c>
       <c r="BM6" s="1" t="s">
@@ -5029,8 +5037,8 @@
       </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.15">
-      <c r="A7" s="41" t="s">
-        <v>1135</v>
+      <c r="A7" s="39" t="s">
+        <v>1133</v>
       </c>
       <c r="C7" s="7">
         <v>45084</v>
@@ -5059,6 +5067,9 @@
       <c r="N7" s="3">
         <v>277.2</v>
       </c>
+      <c r="P7" s="3">
+        <v>4017201</v>
+      </c>
       <c r="S7" s="3" t="s">
         <v>854</v>
       </c>
@@ -5071,8 +5082,8 @@
       <c r="W7" s="15">
         <v>4011101</v>
       </c>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="48">
+      <c r="X7" s="44"/>
+      <c r="Y7" s="39">
         <f t="shared" si="0"/>
         <v>4212101</v>
       </c>
@@ -5091,7 +5102,7 @@
         <v>44431</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="AH7" s="3">
         <v>14151253</v>
@@ -5099,13 +5110,10 @@
       <c r="BD7" s="13">
         <v>9</v>
       </c>
-      <c r="BG7" s="15" t="s">
-        <v>1093</v>
-      </c>
-      <c r="BK7" s="43">
+      <c r="BK7" s="41">
         <v>24</v>
       </c>
-      <c r="BL7" s="43" t="s">
+      <c r="BL7" s="41" t="s">
         <v>1084</v>
       </c>
       <c r="BM7" s="1" t="s">
@@ -5113,8 +5121,8 @@
       </c>
     </row>
     <row r="8" spans="1:65" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="41" t="s">
-        <v>1135</v>
+      <c r="A8" s="39" t="s">
+        <v>1133</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="7">
@@ -5166,8 +5174,8 @@
       <c r="W8" s="15">
         <v>4011101</v>
       </c>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="48">
+      <c r="X8" s="42"/>
+      <c r="Y8" s="39">
         <f t="shared" si="0"/>
         <v>4212101</v>
       </c>
@@ -5212,10 +5220,10 @@
       <c r="BH8" s="16"/>
       <c r="BI8" s="16"/>
       <c r="BJ8" s="1"/>
-      <c r="BK8" s="43">
+      <c r="BK8" s="41">
         <v>30</v>
       </c>
-      <c r="BL8" s="43" t="s">
+      <c r="BL8" s="41" t="s">
         <v>1087</v>
       </c>
       <c r="BM8" s="1" t="s">
@@ -5223,8 +5231,8 @@
       </c>
     </row>
     <row r="9" spans="1:65" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="41" t="s">
-        <v>1135</v>
+      <c r="A9" s="39" t="s">
+        <v>1133</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="7">
@@ -5277,7 +5285,7 @@
         <v>4011101</v>
       </c>
       <c r="X9" s="15"/>
-      <c r="Y9" s="48">
+      <c r="Y9" s="39">
         <f t="shared" si="0"/>
         <v>4212101</v>
       </c>
@@ -5322,10 +5330,10 @@
       <c r="BH9" s="18"/>
       <c r="BI9" s="18"/>
       <c r="BJ9" s="1"/>
-      <c r="BK9" s="43">
+      <c r="BK9" s="41">
         <v>37</v>
       </c>
-      <c r="BL9" s="43" t="s">
+      <c r="BL9" s="41" t="s">
         <v>1088</v>
       </c>
       <c r="BM9" s="1" t="s">
@@ -5334,487 +5342,487 @@
     </row>
     <row r="10" spans="1:65" x14ac:dyDescent="0.15">
       <c r="AD10" s="3"/>
-      <c r="BK10" s="43">
+      <c r="BK10" s="41">
         <v>25</v>
       </c>
-      <c r="BL10" s="43" t="s">
+      <c r="BL10" s="41" t="s">
         <v>1085</v>
       </c>
     </row>
     <row r="11" spans="1:65" x14ac:dyDescent="0.15">
       <c r="AD11" s="3"/>
-      <c r="BK11" s="43">
+      <c r="BK11" s="41">
         <v>12</v>
       </c>
-      <c r="BL11" s="43" t="s">
+      <c r="BL11" s="41" t="s">
         <v>1079</v>
       </c>
     </row>
     <row r="12" spans="1:65" x14ac:dyDescent="0.15">
       <c r="AD12" s="3"/>
-      <c r="BK12" s="43">
+      <c r="BK12" s="41">
         <v>20</v>
       </c>
-      <c r="BL12" s="43" t="s">
+      <c r="BL12" s="41" t="s">
         <v>1081</v>
       </c>
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.15">
       <c r="AD13" s="3"/>
-      <c r="BK13" s="43">
+      <c r="BK13" s="41">
         <v>21</v>
       </c>
-      <c r="BL13" s="43" t="s">
+      <c r="BL13" s="41" t="s">
         <v>1082</v>
       </c>
     </row>
     <row r="14" spans="1:65" x14ac:dyDescent="0.15">
-      <c r="BK14" s="43">
+      <c r="BK14" s="41">
         <v>22</v>
       </c>
-      <c r="BL14" s="43" t="s">
+      <c r="BL14" s="41" t="s">
         <v>1083</v>
       </c>
     </row>
     <row r="15" spans="1:65" x14ac:dyDescent="0.15">
-      <c r="BK15" s="43">
+      <c r="BK15" s="41">
         <v>27</v>
       </c>
-      <c r="BL15" s="43" t="s">
+      <c r="BL15" s="41" t="s">
         <v>1089</v>
       </c>
     </row>
     <row r="16" spans="1:65" x14ac:dyDescent="0.15">
-      <c r="BK16" s="43">
+      <c r="BK16" s="41">
         <v>26</v>
       </c>
-      <c r="BL16" s="43" t="s">
+      <c r="BL16" s="41" t="s">
         <v>1086</v>
       </c>
     </row>
     <row r="17" spans="63:65" x14ac:dyDescent="0.15">
-      <c r="BK17" s="43">
+      <c r="BK17" s="41">
         <v>40</v>
       </c>
-      <c r="BL17" s="43" t="s">
+      <c r="BL17" s="41" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="20" spans="63:65" x14ac:dyDescent="0.15">
-      <c r="BK20" s="35" t="s">
+      <c r="BK20" s="34" t="s">
         <v>854</v>
       </c>
-      <c r="BL20" s="36">
+      <c r="BL20" s="35">
         <v>4212101</v>
       </c>
-      <c r="BM20" s="35" t="s">
+      <c r="BM20" s="34" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="21" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BK21" s="34" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="21" spans="63:65" x14ac:dyDescent="0.15">
-      <c r="BK21" s="35" t="s">
+      <c r="BL21" s="35">
+        <v>4212201</v>
+      </c>
+      <c r="BM21" s="34" t="s">
         <v>1113</v>
       </c>
-      <c r="BL21" s="36">
-        <v>4212201</v>
-      </c>
-      <c r="BM21" s="35" t="s">
-        <v>1114</v>
-      </c>
     </row>
     <row r="22" spans="63:65" x14ac:dyDescent="0.15">
-      <c r="BK22" s="35" t="s">
+      <c r="BK22" s="34" t="s">
         <v>854</v>
       </c>
       <c r="BL22" s="1">
         <v>4241101</v>
       </c>
-      <c r="BM22" s="35" t="s">
-        <v>1115</v>
+      <c r="BM22" s="34" t="s">
+        <v>1114</v>
       </c>
     </row>
     <row r="23" spans="63:65" x14ac:dyDescent="0.15">
-      <c r="BK23" s="35" t="s">
-        <v>1113</v>
+      <c r="BK23" s="34" t="s">
+        <v>1112</v>
       </c>
       <c r="BL23" s="1">
         <v>4241201</v>
       </c>
-      <c r="BM23" s="35" t="s">
+      <c r="BM23" s="34" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="24" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BL24" s="36" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="24" spans="63:65" x14ac:dyDescent="0.15">
-      <c r="BL24" s="37" t="s">
+    <row r="25" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BL25" s="47" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="25" spans="63:65" x14ac:dyDescent="0.15">
-      <c r="BL25" s="35" t="s">
+    <row r="26" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BL26" s="48" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="26" spans="63:65" x14ac:dyDescent="0.15">
-      <c r="BL26" s="38" t="s">
+    <row r="27" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BL27" s="47" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="27" spans="63:65" x14ac:dyDescent="0.15">
-      <c r="BL27" s="35" t="s">
+    <row r="28" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BL28" s="47" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="30" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BL30" s="36" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="28" spans="63:65" x14ac:dyDescent="0.15">
-      <c r="BL28" s="35" t="s">
+    <row r="31" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BK31" s="34">
+        <v>1</v>
+      </c>
+      <c r="BL31" s="34" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="30" spans="63:65" x14ac:dyDescent="0.15">
-      <c r="BL30" s="37" t="s">
+    <row r="32" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BK32" s="34">
+        <v>2</v>
+      </c>
+      <c r="BL32" s="34" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="31" spans="63:65" x14ac:dyDescent="0.15">
-      <c r="BK31" s="35">
+    <row r="33" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BK33" s="34">
+        <v>3</v>
+      </c>
+      <c r="BL33" s="34" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="34" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BK34" s="34">
+        <v>7</v>
+      </c>
+      <c r="BL34" s="34" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="35" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BK35" s="34">
+        <v>8</v>
+      </c>
+      <c r="BL35" s="34" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="36" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BK36" s="34">
+        <v>10</v>
+      </c>
+      <c r="BL36" s="34" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="37" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BK37" s="34">
+        <v>14</v>
+      </c>
+      <c r="BL37" s="34" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="38" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BK38" s="34">
+        <v>91</v>
+      </c>
+      <c r="BL38" s="34" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="39" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BK39" s="34">
+        <v>97</v>
+      </c>
+      <c r="BL39" s="34" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="40" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BK40" s="34">
+        <v>0</v>
+      </c>
+      <c r="BL40" s="34" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="42" spans="63:65" ht="15" x14ac:dyDescent="0.25">
+      <c r="BK42" s="37" t="s">
+        <v>1131</v>
+      </c>
+      <c r="BL42" s="37" t="s">
+        <v>1093</v>
+      </c>
+      <c r="BM42" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="43" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK43" s="38">
         <v>1</v>
       </c>
-      <c r="BL31" s="35" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="32" spans="63:65" x14ac:dyDescent="0.15">
-      <c r="BK32" s="35">
+      <c r="BL43" s="38" t="s">
+        <v>1133</v>
+      </c>
+      <c r="BM43" s="38">
+        <v>20553556733</v>
+      </c>
+    </row>
+    <row r="44" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK44" s="38">
         <v>2</v>
       </c>
-      <c r="BL32" s="35" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="33" spans="63:65" x14ac:dyDescent="0.15">
-      <c r="BK33" s="35">
+      <c r="BL44" s="38" t="s">
+        <v>1134</v>
+      </c>
+      <c r="BM44" s="38">
+        <v>20601464340</v>
+      </c>
+    </row>
+    <row r="45" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK45" s="38">
         <v>3</v>
       </c>
-      <c r="BL33" s="35" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="34" spans="63:65" x14ac:dyDescent="0.15">
-      <c r="BK34" s="35">
+      <c r="BL45" s="38" t="s">
+        <v>1135</v>
+      </c>
+      <c r="BM45" s="38">
+        <v>20602771840</v>
+      </c>
+    </row>
+    <row r="46" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK46" s="38">
+        <v>4</v>
+      </c>
+      <c r="BL46" s="38" t="s">
+        <v>1136</v>
+      </c>
+      <c r="BM46" s="38">
+        <v>20563077701</v>
+      </c>
+    </row>
+    <row r="47" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK47" s="38">
+        <v>5</v>
+      </c>
+      <c r="BL47" s="38" t="s">
+        <v>1137</v>
+      </c>
+      <c r="BM47" s="38">
+        <v>20554375724</v>
+      </c>
+    </row>
+    <row r="48" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK48" s="38">
+        <v>6</v>
+      </c>
+      <c r="BL48" s="38" t="s">
+        <v>1138</v>
+      </c>
+      <c r="BM48" s="38">
+        <v>20553973504</v>
+      </c>
+    </row>
+    <row r="49" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK49" s="38">
         <v>7</v>
       </c>
-      <c r="BL34" s="35" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="35" spans="63:65" x14ac:dyDescent="0.15">
-      <c r="BK35" s="35">
+      <c r="BL49" s="38" t="s">
+        <v>1139</v>
+      </c>
+      <c r="BM49" s="38">
+        <v>20553974900</v>
+      </c>
+    </row>
+    <row r="50" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK50" s="38">
         <v>8</v>
       </c>
-      <c r="BL35" s="35" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="36" spans="63:65" x14ac:dyDescent="0.15">
-      <c r="BK36" s="35">
+      <c r="BL50" s="38" t="s">
+        <v>1140</v>
+      </c>
+      <c r="BM50" s="38">
+        <v>20603277326</v>
+      </c>
+    </row>
+    <row r="51" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK51" s="38">
+        <v>9</v>
+      </c>
+      <c r="BL51" s="38" t="s">
+        <v>1141</v>
+      </c>
+      <c r="BM51" s="38">
+        <v>20546851142</v>
+      </c>
+    </row>
+    <row r="52" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK52" s="38">
         <v>10</v>
       </c>
-      <c r="BL36" s="35" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="37" spans="63:65" x14ac:dyDescent="0.15">
-      <c r="BK37" s="35">
+      <c r="BL52" s="38" t="s">
+        <v>1142</v>
+      </c>
+      <c r="BM52" s="38">
+        <v>20602295134</v>
+      </c>
+    </row>
+    <row r="53" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK53" s="38">
+        <v>11</v>
+      </c>
+      <c r="BL53" s="38" t="s">
+        <v>1143</v>
+      </c>
+      <c r="BM53" s="38">
+        <v>20603605773</v>
+      </c>
+    </row>
+    <row r="54" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK54" s="38">
+        <v>12</v>
+      </c>
+      <c r="BL54" s="38" t="s">
+        <v>1144</v>
+      </c>
+      <c r="BM54" s="38">
+        <v>20603604955</v>
+      </c>
+    </row>
+    <row r="55" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK55" s="38">
+        <v>13</v>
+      </c>
+      <c r="BL55" s="38" t="s">
+        <v>1145</v>
+      </c>
+      <c r="BM55" s="38">
+        <v>20603605439</v>
+      </c>
+    </row>
+    <row r="56" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK56" s="38">
         <v>14</v>
       </c>
-      <c r="BL37" s="35" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="38" spans="63:65" x14ac:dyDescent="0.15">
-      <c r="BK38" s="35">
-        <v>91</v>
-      </c>
-      <c r="BL38" s="35" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="39" spans="63:65" x14ac:dyDescent="0.15">
-      <c r="BK39" s="35">
-        <v>97</v>
-      </c>
-      <c r="BL39" s="35" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="40" spans="63:65" x14ac:dyDescent="0.15">
-      <c r="BK40" s="35">
-        <v>0</v>
-      </c>
-      <c r="BL40" s="35" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="42" spans="63:65" ht="15" x14ac:dyDescent="0.25">
-      <c r="BK42" s="39" t="s">
-        <v>1133</v>
-      </c>
-      <c r="BL42" s="39" t="s">
-        <v>1094</v>
-      </c>
-      <c r="BM42" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="43" spans="63:65" ht="12" x14ac:dyDescent="0.2">
-      <c r="BK43" s="40">
-        <v>1</v>
-      </c>
-      <c r="BL43" s="40" t="s">
-        <v>1135</v>
-      </c>
-      <c r="BM43" s="40">
-        <v>20553556733</v>
-      </c>
-    </row>
-    <row r="44" spans="63:65" ht="12" x14ac:dyDescent="0.2">
-      <c r="BK44" s="40">
-        <v>2</v>
-      </c>
-      <c r="BL44" s="40" t="s">
-        <v>1136</v>
-      </c>
-      <c r="BM44" s="40">
-        <v>20601464340</v>
-      </c>
-    </row>
-    <row r="45" spans="63:65" ht="12" x14ac:dyDescent="0.2">
-      <c r="BK45" s="40">
-        <v>3</v>
-      </c>
-      <c r="BL45" s="40" t="s">
-        <v>1137</v>
-      </c>
-      <c r="BM45" s="40">
-        <v>20602771840</v>
-      </c>
-    </row>
-    <row r="46" spans="63:65" ht="12" x14ac:dyDescent="0.2">
-      <c r="BK46" s="40">
-        <v>4</v>
-      </c>
-      <c r="BL46" s="40" t="s">
-        <v>1138</v>
-      </c>
-      <c r="BM46" s="40">
-        <v>20563077701</v>
-      </c>
-    </row>
-    <row r="47" spans="63:65" ht="12" x14ac:dyDescent="0.2">
-      <c r="BK47" s="40">
-        <v>5</v>
-      </c>
-      <c r="BL47" s="40" t="s">
-        <v>1139</v>
-      </c>
-      <c r="BM47" s="40">
-        <v>20554375724</v>
-      </c>
-    </row>
-    <row r="48" spans="63:65" ht="12" x14ac:dyDescent="0.2">
-      <c r="BK48" s="40">
-        <v>6</v>
-      </c>
-      <c r="BL48" s="40" t="s">
-        <v>1140</v>
-      </c>
-      <c r="BM48" s="40">
-        <v>20553973504</v>
-      </c>
-    </row>
-    <row r="49" spans="63:65" ht="12" x14ac:dyDescent="0.2">
-      <c r="BK49" s="40">
-        <v>7</v>
-      </c>
-      <c r="BL49" s="40" t="s">
-        <v>1141</v>
-      </c>
-      <c r="BM49" s="40">
-        <v>20553974900</v>
-      </c>
-    </row>
-    <row r="50" spans="63:65" ht="12" x14ac:dyDescent="0.2">
-      <c r="BK50" s="40">
-        <v>8</v>
-      </c>
-      <c r="BL50" s="40" t="s">
-        <v>1142</v>
-      </c>
-      <c r="BM50" s="40">
-        <v>20603277326</v>
-      </c>
-    </row>
-    <row r="51" spans="63:65" ht="12" x14ac:dyDescent="0.2">
-      <c r="BK51" s="40">
-        <v>9</v>
-      </c>
-      <c r="BL51" s="40" t="s">
-        <v>1143</v>
-      </c>
-      <c r="BM51" s="40">
-        <v>20546851142</v>
-      </c>
-    </row>
-    <row r="52" spans="63:65" ht="12" x14ac:dyDescent="0.2">
-      <c r="BK52" s="40">
-        <v>10</v>
-      </c>
-      <c r="BL52" s="40" t="s">
-        <v>1144</v>
-      </c>
-      <c r="BM52" s="40">
-        <v>20602295134</v>
-      </c>
-    </row>
-    <row r="53" spans="63:65" ht="12" x14ac:dyDescent="0.2">
-      <c r="BK53" s="40">
-        <v>11</v>
-      </c>
-      <c r="BL53" s="40" t="s">
-        <v>1145</v>
-      </c>
-      <c r="BM53" s="40">
-        <v>20603605773</v>
-      </c>
-    </row>
-    <row r="54" spans="63:65" ht="12" x14ac:dyDescent="0.2">
-      <c r="BK54" s="40">
-        <v>12</v>
-      </c>
-      <c r="BL54" s="40" t="s">
+      <c r="BL56" s="38" t="s">
         <v>1146</v>
       </c>
-      <c r="BM54" s="40">
-        <v>20603604955</v>
-      </c>
-    </row>
-    <row r="55" spans="63:65" ht="12" x14ac:dyDescent="0.2">
-      <c r="BK55" s="40">
-        <v>13</v>
-      </c>
-      <c r="BL55" s="40" t="s">
+      <c r="BM56" s="38">
+        <v>20603604882</v>
+      </c>
+    </row>
+    <row r="57" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK57" s="38">
+        <v>15</v>
+      </c>
+      <c r="BL57" s="38" t="s">
         <v>1147</v>
       </c>
-      <c r="BM55" s="40">
-        <v>20603605439</v>
-      </c>
-    </row>
-    <row r="56" spans="63:65" ht="12" x14ac:dyDescent="0.2">
-      <c r="BK56" s="40">
-        <v>14</v>
-      </c>
-      <c r="BL56" s="40" t="s">
+      <c r="BM57" s="38">
+        <v>20603923864</v>
+      </c>
+    </row>
+    <row r="58" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK58" s="38">
+        <v>16</v>
+      </c>
+      <c r="BL58" s="38" t="s">
         <v>1148</v>
       </c>
-      <c r="BM56" s="40">
-        <v>20603604882</v>
-      </c>
-    </row>
-    <row r="57" spans="63:65" ht="12" x14ac:dyDescent="0.2">
-      <c r="BK57" s="40">
-        <v>15</v>
-      </c>
-      <c r="BL57" s="40" t="s">
+      <c r="BM58" s="38">
+        <v>20604775800</v>
+      </c>
+    </row>
+    <row r="59" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK59" s="38">
+        <v>17</v>
+      </c>
+      <c r="BL59" s="38" t="s">
         <v>1149</v>
       </c>
-      <c r="BM57" s="40">
-        <v>20603923864</v>
-      </c>
-    </row>
-    <row r="58" spans="63:65" ht="12" x14ac:dyDescent="0.2">
-      <c r="BK58" s="40">
-        <v>16</v>
-      </c>
-      <c r="BL58" s="40" t="s">
+      <c r="BM59" s="38">
+        <v>20605657410</v>
+      </c>
+    </row>
+    <row r="60" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK60" s="38">
+        <v>18</v>
+      </c>
+      <c r="BL60" s="38" t="s">
         <v>1150</v>
       </c>
-      <c r="BM58" s="40">
-        <v>20604775800</v>
-      </c>
-    </row>
-    <row r="59" spans="63:65" ht="12" x14ac:dyDescent="0.2">
-      <c r="BK59" s="40">
-        <v>17</v>
-      </c>
-      <c r="BL59" s="40" t="s">
+      <c r="BM60" s="38">
+        <v>20606379324</v>
+      </c>
+    </row>
+    <row r="61" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK61" s="38">
+        <v>19</v>
+      </c>
+      <c r="BL61" s="38" t="s">
         <v>1151</v>
       </c>
-      <c r="BM59" s="40">
-        <v>20605657410</v>
-      </c>
-    </row>
-    <row r="60" spans="63:65" ht="12" x14ac:dyDescent="0.2">
-      <c r="BK60" s="40">
-        <v>18</v>
-      </c>
-      <c r="BL60" s="40" t="s">
+      <c r="BM61" s="38">
+        <v>20606561327</v>
+      </c>
+    </row>
+    <row r="62" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK62" s="38">
+        <v>20</v>
+      </c>
+      <c r="BL62" s="38" t="s">
         <v>1152</v>
       </c>
-      <c r="BM60" s="40">
-        <v>20606379324</v>
-      </c>
-    </row>
-    <row r="61" spans="63:65" ht="12" x14ac:dyDescent="0.2">
-      <c r="BK61" s="40">
-        <v>19</v>
-      </c>
-      <c r="BL61" s="40" t="s">
+      <c r="BM62" s="38">
+        <v>20601464111</v>
+      </c>
+    </row>
+    <row r="63" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK63" s="38">
+        <v>21</v>
+      </c>
+      <c r="BL63" s="38" t="s">
         <v>1153</v>
       </c>
-      <c r="BM61" s="40">
-        <v>20606561327</v>
-      </c>
-    </row>
-    <row r="62" spans="63:65" ht="12" x14ac:dyDescent="0.2">
-      <c r="BK62" s="40">
-        <v>20</v>
-      </c>
-      <c r="BL62" s="40" t="s">
+      <c r="BM63" s="38">
+        <v>20603605285</v>
+      </c>
+    </row>
+    <row r="64" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK64" s="38">
+        <v>22</v>
+      </c>
+      <c r="BL64" s="38" t="s">
         <v>1154</v>
       </c>
-      <c r="BM62" s="40">
-        <v>20601464111</v>
-      </c>
-    </row>
-    <row r="63" spans="63:65" ht="12" x14ac:dyDescent="0.2">
-      <c r="BK63" s="40">
-        <v>21</v>
-      </c>
-      <c r="BL63" s="40" t="s">
+      <c r="BM64" s="38">
+        <v>20607538400</v>
+      </c>
+    </row>
+    <row r="65" spans="63:65" ht="12" x14ac:dyDescent="0.2">
+      <c r="BK65" s="38">
+        <v>23</v>
+      </c>
+      <c r="BL65" s="38" t="s">
         <v>1155</v>
       </c>
-      <c r="BM63" s="40">
-        <v>20603605285</v>
-      </c>
-    </row>
-    <row r="64" spans="63:65" ht="12" x14ac:dyDescent="0.2">
-      <c r="BK64" s="40">
-        <v>22</v>
-      </c>
-      <c r="BL64" s="40" t="s">
-        <v>1156</v>
-      </c>
-      <c r="BM64" s="40">
-        <v>20607538400</v>
-      </c>
-    </row>
-    <row r="65" spans="63:65" ht="12" x14ac:dyDescent="0.2">
-      <c r="BK65" s="40">
-        <v>23</v>
-      </c>
-      <c r="BL65" s="40" t="s">
-        <v>1157</v>
-      </c>
-      <c r="BM65" s="40">
+      <c r="BM65" s="38">
         <v>20607539040</v>
       </c>
     </row>
@@ -5844,7 +5852,7 @@
     <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -24575,7 +24583,7 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -25383,7 +25391,7 @@
   </sheetData>
   <autoFilter ref="A1:A91" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <conditionalFormatting sqref="A1:A91">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HPReserger/Resources/LISTADO DE COMPRAS.xlsx
+++ b/HPReserger/Resources/LISTADO DE COMPRAS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HPReserger\HpReserger\HPReserger\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SISGEM\HpReserger-master\HPReserger\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2BC3A0-BBC3-4D4B-903D-E6FEE2224E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933AF573-A85A-4795-99A9-2472DC53E6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3272" uniqueCount="1161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3285" uniqueCount="1173">
   <si>
     <t xml:space="preserve">Vou.Origen </t>
   </si>
@@ -3733,6 +3733,42 @@
   </si>
   <si>
     <t>Entregas a Rendir</t>
+  </si>
+  <si>
+    <t>LIBRE INMOBILIARIA SAC</t>
+  </si>
+  <si>
+    <t>LIBRE 1 S.A.C</t>
+  </si>
+  <si>
+    <t>LIBRE 3 S.A.C</t>
+  </si>
+  <si>
+    <t>COLABORA ALIADO INMOBILIARIO S.A.C</t>
+  </si>
+  <si>
+    <t>COLABORA 1 SAC</t>
+  </si>
+  <si>
+    <t>LIBRE 4 S.A.C</t>
+  </si>
+  <si>
+    <t>LIBRE 5 S.A.C</t>
+  </si>
+  <si>
+    <t>COMERCIALIZADORA COLABORA LATAM S.A.C.</t>
+  </si>
+  <si>
+    <t>EMPRESAS RELACIONADAS</t>
+  </si>
+  <si>
+    <t>4713101 PRESTAMOS-ASOCIADAS - MN</t>
+  </si>
+  <si>
+    <t>4713201 PRESTAMOS-ASOCIADAS-ME</t>
+  </si>
+  <si>
+    <t>DINAMICA PARA DOCUMENTOS ENTRE RELACIONADAS</t>
   </si>
 </sst>
 </file>
@@ -3742,13 +3778,19 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -3875,8 +3917,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3907,6 +3961,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -3934,97 +3994,109 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4442,10 +4514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BM65"/>
+  <dimension ref="A1:BM90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -4470,7 +4542,7 @@
     <col min="20" max="20" width="4.85546875" style="3" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="23.85546875" style="14" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12" style="15" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12" style="15" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10.7109375" style="3" hidden="1" customWidth="1"/>
@@ -4510,7 +4582,7 @@
     <col min="61" max="61" width="4" style="3" hidden="1" customWidth="1"/>
     <col min="62" max="62" width="11.42578125" style="1"/>
     <col min="63" max="63" width="11.28515625" style="34" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="87.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="42.42578125" style="34" customWidth="1"/>
     <col min="65" max="65" width="38.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="66" max="16384" width="11.42578125" style="1"/>
   </cols>
@@ -4558,10 +4630,10 @@
       <c r="N1" s="22" t="s">
         <v>1102</v>
       </c>
-      <c r="O1" s="46" t="s">
+      <c r="O1" s="45" t="s">
         <v>1158</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="45" t="s">
         <v>1159</v>
       </c>
       <c r="Q1" s="22" t="s">
@@ -4699,10 +4771,10 @@
       <c r="BI1" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" s="45" t="s">
+      <c r="BK1" s="52" t="s">
         <v>1075</v>
       </c>
-      <c r="BL1" s="45"/>
+      <c r="BL1" s="52"/>
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A2" s="39" t="s">
@@ -4723,8 +4795,8 @@
       <c r="G2" s="7">
         <v>44940</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>458</v>
+      <c r="H2" s="8" t="s">
+        <v>486</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>60</v>
@@ -4752,7 +4824,7 @@
       </c>
       <c r="X2" s="42"/>
       <c r="Y2" s="39">
-        <f t="shared" ref="Y2:Y9" si="0">IF(D2=2,(VLOOKUP(S2,$BK$22:$BL$23,2,0)),(VLOOKUP(S2,$BK$20:$BL$21,2,0)))</f>
+        <f>IF(NOT( ISERROR(LOOKUP(H2,$BM$83:$BM$101 ))), (VLOOKUP(S2,$BK$80:$BL$81,2,0)), IF(D2=2,(VLOOKUP(S2,$BK$22:$BL$23,2,0)),(VLOOKUP(S2,$BK$20:$BL$21,2,0))))</f>
         <v>4212101</v>
       </c>
       <c r="Z2" s="11"/>
@@ -4816,8 +4888,8 @@
       <c r="G3" s="7">
         <v>44972</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>486</v>
+      <c r="H3" s="34">
+        <v>20607501425</v>
       </c>
       <c r="I3" s="3">
         <v>340.95</v>
@@ -4842,8 +4914,8 @@
       </c>
       <c r="X3" s="42"/>
       <c r="Y3" s="39">
-        <f t="shared" si="0"/>
-        <v>4212101</v>
+        <f t="shared" ref="Y3:Y9" si="0">IF(NOT( ISERROR(LOOKUP(H3,$BM$83:$BM$101 ))), (VLOOKUP(S3,$BK$80:$BL$81,2,0)), IF(D3=2,(VLOOKUP(S3,$BK$22:$BL$23,2,0)),(VLOOKUP(S3,$BK$20:$BL$21,2,0))))</f>
+        <v>4713101</v>
       </c>
       <c r="AD3" s="7"/>
       <c r="BK3" s="41">
@@ -4921,7 +4993,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:65" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A5" s="39" t="s">
         <v>1133</v>
       </c>
@@ -4970,7 +5042,7 @@
       <c r="BK5" s="41">
         <v>10</v>
       </c>
-      <c r="BL5" s="41" t="s">
+      <c r="BL5" s="49" t="s">
         <v>1077</v>
       </c>
       <c r="BM5" s="1" t="s">
@@ -5140,8 +5212,8 @@
       <c r="G8" s="7">
         <v>44940</v>
       </c>
-      <c r="H8" s="16" t="s">
-        <v>458</v>
+      <c r="H8" s="34">
+        <v>20607501425</v>
       </c>
       <c r="I8" s="16">
         <v>100</v>
@@ -5177,7 +5249,7 @@
       <c r="X8" s="42"/>
       <c r="Y8" s="39">
         <f t="shared" si="0"/>
-        <v>4212101</v>
+        <v>4713101</v>
       </c>
       <c r="Z8" s="16"/>
       <c r="AA8" s="16">
@@ -5368,6 +5440,7 @@
       </c>
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="H13" s="34"/>
       <c r="AD13" s="3"/>
       <c r="BK13" s="41">
         <v>21</v>
@@ -5377,6 +5450,7 @@
       </c>
     </row>
     <row r="14" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="H14" s="8"/>
       <c r="BK14" s="41">
         <v>22</v>
       </c>
@@ -5385,6 +5459,7 @@
       </c>
     </row>
     <row r="15" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="H15" s="10"/>
       <c r="BK15" s="41">
         <v>27</v>
       </c>
@@ -5393,6 +5468,7 @@
       </c>
     </row>
     <row r="16" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="H16" s="8"/>
       <c r="BK16" s="41">
         <v>26</v>
       </c>
@@ -5400,7 +5476,8 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="17" spans="63:65" x14ac:dyDescent="0.15">
+    <row r="17" spans="8:65" x14ac:dyDescent="0.15">
+      <c r="H17" s="8"/>
       <c r="BK17" s="41">
         <v>40</v>
       </c>
@@ -5408,7 +5485,14 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="20" spans="63:65" x14ac:dyDescent="0.15">
+    <row r="18" spans="8:65" x14ac:dyDescent="0.15">
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="8:65" x14ac:dyDescent="0.15">
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" spans="8:65" x14ac:dyDescent="0.15">
+      <c r="H20" s="18"/>
       <c r="BK20" s="34" t="s">
         <v>854</v>
       </c>
@@ -5419,7 +5503,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="21" spans="63:65" x14ac:dyDescent="0.15">
+    <row r="21" spans="8:65" x14ac:dyDescent="0.15">
       <c r="BK21" s="34" t="s">
         <v>1112</v>
       </c>
@@ -5430,7 +5514,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="22" spans="63:65" x14ac:dyDescent="0.15">
+    <row r="22" spans="8:65" x14ac:dyDescent="0.15">
       <c r="BK22" s="34" t="s">
         <v>854</v>
       </c>
@@ -5441,7 +5525,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="23" spans="63:65" x14ac:dyDescent="0.15">
+    <row r="23" spans="8:65" x14ac:dyDescent="0.15">
       <c r="BK23" s="34" t="s">
         <v>1112</v>
       </c>
@@ -5452,37 +5536,37 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="24" spans="63:65" x14ac:dyDescent="0.15">
+    <row r="24" spans="8:65" x14ac:dyDescent="0.15">
       <c r="BL24" s="36" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="25" spans="63:65" x14ac:dyDescent="0.15">
-      <c r="BL25" s="47" t="s">
+    <row r="25" spans="8:65" x14ac:dyDescent="0.15">
+      <c r="BL25" s="46" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="26" spans="63:65" x14ac:dyDescent="0.15">
-      <c r="BL26" s="48" t="s">
+    <row r="26" spans="8:65" x14ac:dyDescent="0.15">
+      <c r="BL26" s="47" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="27" spans="63:65" x14ac:dyDescent="0.15">
-      <c r="BL27" s="47" t="s">
+    <row r="27" spans="8:65" x14ac:dyDescent="0.15">
+      <c r="BL27" s="46" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="28" spans="63:65" x14ac:dyDescent="0.15">
-      <c r="BL28" s="47" t="s">
+    <row r="28" spans="8:65" x14ac:dyDescent="0.15">
+      <c r="BL28" s="46" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="30" spans="63:65" x14ac:dyDescent="0.15">
+    <row r="30" spans="8:65" x14ac:dyDescent="0.15">
       <c r="BL30" s="36" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="31" spans="63:65" x14ac:dyDescent="0.15">
+    <row r="31" spans="8:65" x14ac:dyDescent="0.15">
       <c r="BK31" s="34">
         <v>1</v>
       </c>
@@ -5490,7 +5574,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="32" spans="63:65" x14ac:dyDescent="0.15">
+    <row r="32" spans="8:65" x14ac:dyDescent="0.15">
       <c r="BK32" s="34">
         <v>2</v>
       </c>
@@ -5824,14 +5908,113 @@
       </c>
       <c r="BM65" s="38">
         <v>20607539040</v>
+      </c>
+    </row>
+    <row r="79" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BL79" s="50" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="80" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BK80" s="53" t="s">
+        <v>854</v>
+      </c>
+      <c r="BL80" s="54">
+        <v>4713101</v>
+      </c>
+      <c r="BM80" s="48" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="81" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BK81" s="53" t="s">
+        <v>1112</v>
+      </c>
+      <c r="BL81" s="54">
+        <v>4713201</v>
+      </c>
+      <c r="BM81" s="48" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="82" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BL82" s="50" t="s">
+        <v>1169</v>
+      </c>
+      <c r="BM82" s="51" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="83" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BL83" s="34" t="s">
+        <v>1161</v>
+      </c>
+      <c r="BM83" s="34">
+        <v>20605029451</v>
+      </c>
+    </row>
+    <row r="84" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BL84" s="34" t="s">
+        <v>1162</v>
+      </c>
+      <c r="BM84" s="34">
+        <v>20606399571</v>
+      </c>
+    </row>
+    <row r="85" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BL85" s="34" t="s">
+        <v>1163</v>
+      </c>
+      <c r="BM85" s="34">
+        <v>20607058645</v>
+      </c>
+    </row>
+    <row r="86" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BL86" s="34" t="s">
+        <v>1164</v>
+      </c>
+      <c r="BM86" s="34">
+        <v>20607501425</v>
+      </c>
+    </row>
+    <row r="87" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BL87" s="34" t="s">
+        <v>1165</v>
+      </c>
+      <c r="BM87" s="34">
+        <v>20608200402</v>
+      </c>
+    </row>
+    <row r="88" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BL88" s="34" t="s">
+        <v>1166</v>
+      </c>
+      <c r="BM88" s="34">
+        <v>20610321471</v>
+      </c>
+    </row>
+    <row r="89" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BL89" s="34" t="s">
+        <v>1167</v>
+      </c>
+      <c r="BM89" s="34">
+        <v>20612940151</v>
+      </c>
+    </row>
+    <row r="90" spans="63:65" x14ac:dyDescent="0.15">
+      <c r="BL90" s="34" t="s">
+        <v>1168</v>
+      </c>
+      <c r="BM90" s="34">
+        <v>20606884011</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="BK1:BL1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E10:E1048576 E5:E7 C8:C9">
-    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
     <cfRule type="duplicateValues" dxfId="8" priority="6"/>
@@ -5842,17 +6025,17 @@
   <conditionalFormatting sqref="E4">
     <cfRule type="duplicateValues" dxfId="6" priority="10"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E1048576 E5:E7 C8:C9">
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F8:F9">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G9">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD8:AD9">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
